--- a/teaching/traditional_assets/database/data/germany/germany_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ47"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00993</v>
+        <v>0.0309</v>
       </c>
       <c r="E2">
-        <v>0.09814999999999999</v>
+        <v>0.0311</v>
       </c>
       <c r="F2">
-        <v>0.11</v>
+        <v>0.06309999999999999</v>
       </c>
       <c r="G2">
-        <v>0.09197354267734306</v>
+        <v>0.1050972835912117</v>
       </c>
       <c r="H2">
-        <v>0.08155394780446765</v>
+        <v>0.09865446859037656</v>
       </c>
       <c r="I2">
-        <v>0.06170470176943837</v>
+        <v>0.09035525663165754</v>
       </c>
       <c r="J2">
-        <v>0.05514921127830837</v>
+        <v>0.08068557270916414</v>
       </c>
       <c r="K2">
-        <v>495.394</v>
+        <v>1304.703</v>
       </c>
       <c r="L2">
-        <v>0.0498243704870004</v>
+        <v>0.1118706422682276</v>
       </c>
       <c r="M2">
-        <v>159.056</v>
+        <v>217.5291</v>
       </c>
       <c r="N2">
-        <v>0.01336797024043201</v>
+        <v>0.01635455203581672</v>
       </c>
       <c r="O2">
-        <v>0.3210696940213245</v>
+        <v>0.1667269102623356</v>
       </c>
       <c r="P2">
-        <v>144.281</v>
+        <v>193.9601</v>
       </c>
       <c r="Q2">
-        <v>0.01212619526619411</v>
+        <v>0.01458255722256109</v>
       </c>
       <c r="R2">
-        <v>0.291244948465262</v>
+        <v>0.1486622625992276</v>
       </c>
       <c r="S2">
-        <v>14.775</v>
+        <v>23.56900000000001</v>
       </c>
       <c r="T2">
-        <v>0.09289181168896488</v>
+        <v>0.108348722079023</v>
       </c>
       <c r="U2">
-        <v>3658.713</v>
+        <v>5055.938</v>
       </c>
       <c r="V2">
-        <v>0.3074990349454387</v>
+        <v>0.3801220209657609</v>
       </c>
       <c r="W2">
-        <v>-0.02297794117647059</v>
+        <v>0.09588815789473684</v>
       </c>
       <c r="X2">
-        <v>0.04909241274425938</v>
+        <v>0.03564088566935839</v>
       </c>
       <c r="Y2">
-        <v>-0.07207035392072997</v>
+        <v>0.06024727222537846</v>
       </c>
       <c r="Z2">
-        <v>0.9114042416675825</v>
+        <v>1.453756596483875</v>
       </c>
       <c r="AA2">
-        <v>0.0137593984962406</v>
+        <v>0.02158385093167702</v>
       </c>
       <c r="AB2">
-        <v>0.0476807475146911</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC2">
-        <v>-0.03400281884037986</v>
+        <v>-0.01366164523862675</v>
       </c>
       <c r="AD2">
-        <v>1098.127</v>
+        <v>2150.676</v>
       </c>
       <c r="AE2">
-        <v>862.6709136165972</v>
+        <v>30.78211293302126</v>
       </c>
       <c r="AF2">
-        <v>1960.797913616597</v>
+        <v>2181.458112933021</v>
       </c>
       <c r="AG2">
-        <v>-1697.915086383402</v>
+        <v>-2874.479887066979</v>
       </c>
       <c r="AH2">
-        <v>0.1414810111861038</v>
+        <v>0.1409002492345434</v>
       </c>
       <c r="AI2">
-        <v>0.1520665127867397</v>
+        <v>0.153394495581515</v>
       </c>
       <c r="AJ2">
-        <v>-0.1664561287507881</v>
+        <v>-0.2756938076724694</v>
       </c>
       <c r="AK2">
-        <v>-0.1838439736564259</v>
+        <v>-0.3136267212110218</v>
       </c>
       <c r="AL2">
-        <v>98.886</v>
+        <v>135.457</v>
       </c>
       <c r="AM2">
-        <v>52.924</v>
+        <v>87.437</v>
       </c>
       <c r="AN2">
-        <v>1.096187843704487</v>
+        <v>1.659546492049799</v>
       </c>
       <c r="AO2">
-        <v>6.333697388912486</v>
+        <v>7.786249510914903</v>
       </c>
       <c r="AP2">
-        <v>-1.694916778602055</v>
+        <v>-2.218062140949965</v>
       </c>
       <c r="AQ2">
-        <v>11.8342151008994</v>
+        <v>12.06242208675961</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mic AG (XTRA:M3B)</t>
+          <t>Clere AG (HMSE:CAG)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,29 +727,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.189</v>
-      </c>
-      <c r="E3">
-        <v>-0.255</v>
-      </c>
       <c r="G3">
-        <v>0.1991978609625668</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="H3">
-        <v>0.1991978609625668</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="I3">
-        <v>0.1925133689839572</v>
+        <v>0.2638418079096045</v>
       </c>
       <c r="J3">
-        <v>0.1925133689839572</v>
+        <v>0.2001632310276378</v>
       </c>
       <c r="K3">
-        <v>1.55</v>
+        <v>2.81</v>
       </c>
       <c r="L3">
-        <v>0.4144385026737968</v>
+        <v>0.07937853107344633</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -773,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.1141078838174274</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -794,34 +788,31 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.275</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
-        <v>-0.1288056206088993</v>
-      </c>
-      <c r="AK3">
-        <v>-0.005609382967873534</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="AM3">
-        <v>-1</v>
+        <v>7.677</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>1.12124849939976</v>
+      </c>
       <c r="AP3">
-        <v>-0.3691275167785235</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-0.72</v>
+        <v>1.216621075941123</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clere AG (HMSE:CAG)</t>
+          <t>Netfonds AG (DB:NF4)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,91 +832,100 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.414207650273224</v>
+        <v>0.02486231313926043</v>
       </c>
       <c r="H4">
-        <v>0.414207650273224</v>
+        <v>0.02486231313926043</v>
       </c>
       <c r="I4">
-        <v>0.04114754098360655</v>
+        <v>0.005121951219512195</v>
       </c>
       <c r="J4">
-        <v>0.04114754098360655</v>
+        <v>0.002560975609756098</v>
       </c>
       <c r="K4">
-        <v>-3.63</v>
+        <v>-0.322</v>
       </c>
       <c r="L4">
-        <v>-0.1983606557377049</v>
+        <v>-0.002533438237608183</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.404</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.004627720504009163</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-1.254658385093168</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>0.355</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.004066437571592211</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.102484472049689</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.04899999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.1212871287128713</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.05108820160366552</v>
       </c>
       <c r="X4">
-        <v>0.04776221733662046</v>
+        <v>0.03998879650109469</v>
       </c>
       <c r="AB4">
-        <v>0.04776221733662046</v>
+        <v>0.03449095308397427</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>18.34</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.2070844686648501</v>
+      </c>
+      <c r="AI4">
+        <v>0.6551724137931035</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.173608481635744</v>
+      </c>
+      <c r="AK4">
+        <v>0.6044825313117996</v>
       </c>
       <c r="AL4">
-        <v>2.05</v>
+        <v>1.09</v>
       </c>
       <c r="AM4">
-        <v>0.9099999999999999</v>
+        <v>0.9390000000000001</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>7.215189873417722</v>
       </c>
       <c r="AO4">
-        <v>0.3673170731707318</v>
+        <v>0.5972477064220183</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>5.80379746835443</v>
       </c>
       <c r="AQ4">
-        <v>0.8274725274725275</v>
+        <v>0.6932907348242812</v>
       </c>
     </row>
     <row r="5">
@@ -936,7 +936,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GBK Beteiligungen AG (HMSE:GBQ)</t>
+          <t>capsensixx AG (XTRA:CPX)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -944,54 +944,45 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.0533</v>
-      </c>
-      <c r="F5">
-        <v>0.103</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.04253061224489796</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04253061224489796</v>
       </c>
       <c r="I5">
-        <v>0.3342939481268011</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="J5">
-        <v>0.3342939481268011</v>
+        <v>0.02764044943820225</v>
       </c>
       <c r="K5">
-        <v>-0.869</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>-0.2504322766570605</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="M5">
-        <v>0.7695000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.0126980198019802</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0.8855005753739932</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.7695000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0126980198019802</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0.8855005753739932</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
@@ -999,34 +990,52 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04776221733662046</v>
+        <v>0.03586780155330845</v>
       </c>
       <c r="AB5">
-        <v>0.04776221733662046</v>
+        <v>0.03512478472114987</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.03312927619733525</v>
+      </c>
+      <c r="AI5">
+        <v>0.07750631844987364</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.03312927619733525</v>
+      </c>
+      <c r="AK5">
+        <v>0.07750631844987364</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.006999999999999951</v>
+      </c>
+      <c r="AN5">
+        <v>0.3565891472868217</v>
+      </c>
+      <c r="AO5">
+        <v>15.04297994269341</v>
+      </c>
+      <c r="AP5">
+        <v>0.3565891472868217</v>
+      </c>
+      <c r="AQ5">
+        <v>750.0000000000052</v>
       </c>
     </row>
     <row r="6">
@@ -1037,7 +1046,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Horus AG (BST:HRU)</t>
+          <t>GBK Beteiligungen AG (HMSE:GBQ)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1046,47 +1055,50 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.00993</v>
+        <v>0.0431</v>
       </c>
       <c r="G6">
-        <v>0.6388140161725067</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6388140161725067</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6361185983827493</v>
+        <v>0.5597964376590331</v>
       </c>
       <c r="J6">
-        <v>0.6361185983827493</v>
+        <v>0.5597964376590331</v>
       </c>
       <c r="K6">
-        <v>-0.594</v>
+        <v>-0.76</v>
       </c>
       <c r="L6">
-        <v>-1.601078167115903</v>
+        <v>-0.1933842239185751</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>0.756</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.01830508474576271</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0.9947368421052631</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>0.756</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.01830508474576271</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0.9947368421052631</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -1094,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB6">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1118,22 +1130,10 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.134</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>236</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>-1.761194029850746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DLB-Anlageservice AG (BST:DLB)</t>
+          <t>Effecten-Spiegel AG (BST:EFS3)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1153,46 +1153,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0125</v>
+        <v>-0.0492</v>
       </c>
       <c r="E7">
-        <v>0.112</v>
+        <v>-0.007650000000000001</v>
       </c>
       <c r="G7">
-        <v>0.3302238805970149</v>
+        <v>0.1447698744769874</v>
       </c>
       <c r="H7">
-        <v>0.3302238805970149</v>
+        <v>0.1447698744769874</v>
       </c>
       <c r="I7">
-        <v>0.3264925373134328</v>
+        <v>0.1430962343096234</v>
       </c>
       <c r="J7">
-        <v>0.3264925373134328</v>
+        <v>0.1277047836776949</v>
       </c>
       <c r="K7">
-        <v>0.513</v>
+        <v>2.59</v>
       </c>
       <c r="L7">
-        <v>0.957089552238806</v>
+        <v>0.1083682008368201</v>
       </c>
       <c r="M7">
-        <v>0.4005</v>
+        <v>2.5515</v>
       </c>
       <c r="N7">
-        <v>0.04762187871581451</v>
+        <v>0.07269230769230768</v>
       </c>
       <c r="O7">
-        <v>0.7807017543859649</v>
+        <v>0.9851351351351352</v>
       </c>
       <c r="P7">
-        <v>0.4005</v>
+        <v>2.5515</v>
       </c>
       <c r="Q7">
-        <v>0.04762187871581451</v>
+        <v>0.07269230769230768</v>
       </c>
       <c r="R7">
-        <v>0.7807017543859649</v>
+        <v>0.9851351351351352</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB7">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1231,22 +1231,22 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="AM7">
-        <v>-0.488</v>
+        <v>-1.557</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>175</v>
+        <v>263.0769230769231</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>-0.3586065573770492</v>
+        <v>-2.196531791907514</v>
       </c>
     </row>
     <row r="8">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elbstein AG (HMSE:EBS)</t>
+          <t>cash.life AG (DUSE:SGS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1266,53 +1266,50 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.427</v>
+        <v>-0.09420000000000001</v>
       </c>
       <c r="E8">
-        <v>0.826</v>
+        <v>1.164</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>165.5729166666667</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>165.5729166666667</v>
       </c>
       <c r="I8">
-        <v>0.7060606060606061</v>
+        <v>165.5729166666667</v>
       </c>
       <c r="J8">
-        <v>0.7029318293720066</v>
+        <v>165.3216663359788</v>
       </c>
       <c r="K8">
-        <v>0.673</v>
+        <v>314.6</v>
       </c>
       <c r="L8">
-        <v>0.5098484848484849</v>
+        <v>163.8541666666667</v>
       </c>
       <c r="M8">
-        <v>0.916</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.02775757575757576</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>1.361069836552749</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>0.916</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.02775757575757576</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>1.361069836552749</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -1320,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB8">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1344,16 +1341,22 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.007</v>
+        <v>3.24</v>
       </c>
       <c r="AM8">
-        <v>-0.114</v>
+        <v>2.867</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>133.1428571428571</v>
+        <v>98.11728395061726</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>-8.17543859649123</v>
+        <v>110.8824555284269</v>
       </c>
     </row>
     <row r="9">
@@ -1364,7 +1367,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SCI AG (HMSE:SCI)</t>
+          <t>U.C.A. Aktiengesellschaft (DB:UCA1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1372,29 +1375,11 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D9">
-        <v>-0.172</v>
-      </c>
       <c r="E9">
-        <v>-0.153</v>
-      </c>
-      <c r="G9">
-        <v>0.2798449612403101</v>
-      </c>
-      <c r="H9">
-        <v>0.2798449612403101</v>
-      </c>
-      <c r="I9">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="J9">
-        <v>0.2675854148722366</v>
+        <v>-0.174</v>
       </c>
       <c r="K9">
-        <v>0.232</v>
-      </c>
-      <c r="L9">
-        <v>0.1798449612403101</v>
+        <v>0.637</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1424,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB9">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1451,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.196</v>
+        <v>-0.641</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -1460,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>-1.836734693877551</v>
+        <v>-0.2199687987519501</v>
       </c>
     </row>
     <row r="10">
@@ -1471,7 +1456,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Capital One AG (DB:8CA)</t>
+          <t>DLB-Anlageservice AG (BST:DLB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1479,56 +1464,65 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D10">
+        <v>-0.0396</v>
+      </c>
+      <c r="E10">
+        <v>0.114</v>
+      </c>
+      <c r="G10">
+        <v>0.5264187866927593</v>
+      </c>
+      <c r="H10">
+        <v>0.5264187866927593</v>
+      </c>
+      <c r="I10">
+        <v>0.5244618395303327</v>
+      </c>
+      <c r="J10">
+        <v>0.5244618395303327</v>
+      </c>
       <c r="K10">
-        <v>-0.101</v>
+        <v>0.612</v>
+      </c>
+      <c r="L10">
+        <v>1.197651663405088</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>0.393</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.04225806451612903</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.6421568627450981</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>0.393</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.04225806451612903</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.6421568627450981</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
-        <v>0.666</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.2674698795180723</v>
-      </c>
-      <c r="W10">
-        <v>-0.1335978835978836</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="Y10">
-        <v>-0.1813601009345041</v>
-      </c>
-      <c r="Z10">
-        <v>-0</v>
-      </c>
-      <c r="AA10">
-        <v>0.8706896551724139</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB10">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AC10">
-        <v>0.8229274378357935</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1540,25 +1534,31 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-0.666</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
       <c r="AJ10">
-        <v>-0.3651315789473684</v>
-      </c>
-      <c r="AK10">
-        <v>22.19999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>268</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>-0.536</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>capsensixx AG (XTRA:CPX)</t>
+          <t>Auden AG (MUN:AD1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1577,23 +1577,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D11">
+        <v>-0.03240000000000001</v>
+      </c>
       <c r="G11">
-        <v>0.062578125</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="H11">
-        <v>0.062578125</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="I11">
-        <v>0.0347740140254767</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="J11">
-        <v>0.02042283363401012</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="K11">
-        <v>-0.715</v>
+        <v>0.419</v>
       </c>
       <c r="L11">
-        <v>-0.0055859375</v>
+        <v>0.6682615629984051</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1602,7 +1605,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1611,7 +1614,7 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1623,61 +1626,40 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.05090627675909332</v>
-      </c>
-      <c r="Z11">
-        <v>28.16510280650516</v>
-      </c>
-      <c r="AA11">
-        <v>0.5752112089020465</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB11">
-        <v>0.04724195832585681</v>
-      </c>
-      <c r="AC11">
-        <v>0.5279692505761897</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>4.544631023694912</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>4.544631023694912</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>4.544631023694912</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.1358852193787135</v>
-      </c>
-      <c r="AI11">
-        <v>0.2015837393354721</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.1358852193787135</v>
-      </c>
-      <c r="AK11">
-        <v>0.2015837393354721</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.04699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AO11">
-        <v>54.64788732394366</v>
-      </c>
       <c r="AP11">
-        <v>0.7987049250781919</v>
-      </c>
-      <c r="AQ11">
-        <v>82.55319148936171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1688,7 +1670,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Deutsche Effecten- und Wechsel-Beteiligungsgesellschaft AG (XTRA:EFF)</t>
+          <t>Lehner Investments AG (DB:LEH)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1697,25 +1679,25 @@
         </is>
       </c>
       <c r="D12">
-        <v>4.22</v>
+        <v>-0.5479999999999999</v>
       </c>
       <c r="G12">
-        <v>0.7954545454545455</v>
+        <v>-29.27272727272728</v>
       </c>
       <c r="H12">
-        <v>0.7954545454545455</v>
+        <v>-29.27272727272728</v>
       </c>
       <c r="I12">
-        <v>0.7658452705822076</v>
+        <v>-31</v>
       </c>
       <c r="J12">
-        <v>0.7658452705822076</v>
+        <v>-31</v>
       </c>
       <c r="K12">
-        <v>-3.25</v>
+        <v>-0.381</v>
       </c>
       <c r="L12">
-        <v>-0.2462121212121212</v>
+        <v>-34.63636363636364</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1739,73 +1721,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1.73</v>
+        <v>0.249</v>
       </c>
       <c r="V12">
-        <v>0.07935779816513761</v>
-      </c>
-      <c r="W12">
-        <v>-0.2372262773722628</v>
+        <v>0.002929411764705882</v>
       </c>
       <c r="X12">
-        <v>0.0642011471505074</v>
-      </c>
-      <c r="Y12">
-        <v>-0.3014274245227702</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Z12">
-        <v>0.4886316850856992</v>
+        <v>-0.07006369426751592</v>
       </c>
       <c r="AA12">
-        <v>0.3742162650794973</v>
+        <v>2.171974522292994</v>
       </c>
       <c r="AB12">
-        <v>0.04603466117925827</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC12">
-        <v>0.3281816039002391</v>
+        <v>2.13672902612269</v>
       </c>
       <c r="AD12">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0.02421214157429161</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>17.92421214157429</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>16.19421214157429</v>
+        <v>-0.249</v>
       </c>
       <c r="AH12">
-        <v>0.4512163029865429</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.6395973614181819</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.4262283971366824</v>
+        <v>-0.002938018430460997</v>
       </c>
       <c r="AK12">
-        <v>0.6158850493173479</v>
+        <v>-0.002409265512670414</v>
       </c>
       <c r="AL12">
-        <v>0.946</v>
+        <v>0.018</v>
       </c>
       <c r="AM12">
-        <v>0.828</v>
-      </c>
-      <c r="AN12">
-        <v>1.769824006327862</v>
+        <v>0.012</v>
       </c>
       <c r="AO12">
-        <v>10.67653276955603</v>
-      </c>
-      <c r="AP12">
-        <v>1.601167900096331</v>
+        <v>-18.94444444444445</v>
       </c>
       <c r="AQ12">
-        <v>12.19806763285024</v>
+        <v>-28.41666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1816,7 +1786,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OVB Holding AG (XTRA:O4B)</t>
+          <t>PEH Wertpapier AG (DB:PEH)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1825,124 +1795,118 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0566</v>
+        <v>0.105</v>
       </c>
       <c r="E13">
-        <v>0.0415</v>
-      </c>
-      <c r="F13">
-        <v>0.102</v>
+        <v>-0.0941</v>
       </c>
       <c r="G13">
-        <v>0.05581904414447282</v>
+        <v>0.0738425925925926</v>
       </c>
       <c r="H13">
-        <v>0.05581904414447282</v>
+        <v>0.0738425925925926</v>
       </c>
       <c r="I13">
-        <v>0.0534838088403106</v>
+        <v>0.1188271604938272</v>
       </c>
       <c r="J13">
-        <v>0.04150881767858068</v>
+        <v>0.05941358024691359</v>
       </c>
       <c r="K13">
-        <v>12.2</v>
+        <v>2.48</v>
       </c>
       <c r="L13">
-        <v>0.04450930317402407</v>
+        <v>0.0191358024691358</v>
       </c>
       <c r="M13">
-        <v>11.9</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.04206433368681513</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.9754098360655739</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>11.9</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.04206433368681513</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.9754098360655739</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0.2099681866383881</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.1217564870259481</v>
+        <v>0.1298429319371728</v>
       </c>
       <c r="X13">
-        <v>0.0489000928623675</v>
+        <v>0.03632550893564529</v>
       </c>
       <c r="Y13">
-        <v>0.07285639416358058</v>
+        <v>0.09351742300152746</v>
       </c>
       <c r="Z13">
-        <v>5.632102286212674</v>
+        <v>8.597585246119145</v>
       </c>
       <c r="AA13">
-        <v>0.2337819069455193</v>
+        <v>0.5108133209499801</v>
       </c>
       <c r="AB13">
-        <v>0.04769928758330215</v>
+        <v>0.03504098437911995</v>
       </c>
       <c r="AC13">
-        <v>0.1860826193622171</v>
+        <v>0.4757723365708602</v>
       </c>
       <c r="AD13">
-        <v>10.7</v>
+        <v>2.45</v>
       </c>
       <c r="AE13">
-        <v>5.400439984354321</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>16.10043998435432</v>
+        <v>2.45</v>
       </c>
       <c r="AG13">
-        <v>-43.29956001564568</v>
+        <v>2.45</v>
       </c>
       <c r="AH13">
-        <v>0.05384754612801508</v>
+        <v>0.0561282932416953</v>
       </c>
       <c r="AI13">
-        <v>0.1454415175461801</v>
+        <v>0.07573415765069552</v>
       </c>
       <c r="AJ13">
-        <v>-0.180715694923069</v>
+        <v>0.0561282932416953</v>
       </c>
       <c r="AK13">
-        <v>-0.8440387651421947</v>
+        <v>0.07573415765069552</v>
       </c>
       <c r="AL13">
-        <v>0.254</v>
+        <v>0.136</v>
       </c>
       <c r="AM13">
-        <v>-0.429</v>
+        <v>0.094</v>
       </c>
       <c r="AN13">
-        <v>0.6031567080045095</v>
+        <v>0.1580645161290323</v>
       </c>
       <c r="AO13">
-        <v>52.36220472440945</v>
+        <v>113.2352941176471</v>
       </c>
       <c r="AP13">
-        <v>-2.440786923091639</v>
+        <v>0.1580645161290323</v>
       </c>
       <c r="AQ13">
-        <v>-31.002331002331</v>
+        <v>163.8297872340426</v>
       </c>
     </row>
     <row r="14">
@@ -1953,7 +1917,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MLP SE (XTRA:MLP)</t>
+          <t>OVB Holding AG (XTRA:O4B)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1962,46 +1926,49 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0658</v>
+        <v>0.047</v>
       </c>
       <c r="E14">
-        <v>0.0843</v>
+        <v>0.04969999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.095</v>
       </c>
       <c r="G14">
-        <v>0.07961269499731038</v>
+        <v>0.05252980986142443</v>
       </c>
       <c r="H14">
-        <v>0.07961269499731038</v>
+        <v>0.05252980986142443</v>
       </c>
       <c r="I14">
-        <v>0.06339216641566103</v>
+        <v>0.05768611021592007</v>
       </c>
       <c r="J14">
-        <v>0.04914987352051252</v>
+        <v>0.04453974930881829</v>
       </c>
       <c r="K14">
-        <v>35.3</v>
+        <v>14.3</v>
       </c>
       <c r="L14">
-        <v>0.04747175901022054</v>
+        <v>0.04608443441830486</v>
       </c>
       <c r="M14">
-        <v>23.8274</v>
+        <v>12.7</v>
       </c>
       <c r="N14">
-        <v>0.03469336051252184</v>
+        <v>0.04047163798597832</v>
       </c>
       <c r="O14">
-        <v>0.6749971671388103</v>
+        <v>0.888111888111888</v>
       </c>
       <c r="P14">
-        <v>23.8274</v>
+        <v>12.7</v>
       </c>
       <c r="Q14">
-        <v>0.03469336051252184</v>
+        <v>0.04047163798597832</v>
       </c>
       <c r="R14">
-        <v>0.6749971671388103</v>
+        <v>0.888111888111888</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2010,73 +1977,73 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>483.6</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V14">
-        <v>0.7041351193942924</v>
+        <v>0.2313575525812619</v>
       </c>
       <c r="W14">
-        <v>0.07439409905163329</v>
+        <v>0.1521276595744681</v>
       </c>
       <c r="X14">
-        <v>0.04964885192109848</v>
+        <v>0.03606156387967565</v>
       </c>
       <c r="Y14">
-        <v>0.0247452471305348</v>
+        <v>0.1160660956947924</v>
       </c>
       <c r="Z14">
-        <v>4.730041432320299</v>
+        <v>6.849889624724061</v>
       </c>
       <c r="AA14">
-        <v>0.2324809381453266</v>
+        <v>0.305092366678285</v>
       </c>
       <c r="AB14">
-        <v>0.04706993999780541</v>
+        <v>0.03508881593608484</v>
       </c>
       <c r="AC14">
-        <v>0.1854109981475212</v>
+        <v>0.2700035507422002</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="AE14">
-        <v>64.80792526657231</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>64.80792526657231</v>
+        <v>14.1</v>
       </c>
       <c r="AG14">
-        <v>-418.7920747334277</v>
+        <v>-58.49999999999999</v>
       </c>
       <c r="AH14">
-        <v>0.08622570769671825</v>
+        <v>0.04300091491308325</v>
       </c>
       <c r="AI14">
-        <v>0.1267493071475168</v>
+        <v>0.1201022146507666</v>
       </c>
       <c r="AJ14">
-        <v>-1.562610785919406</v>
+        <v>-0.2291421856639247</v>
       </c>
       <c r="AK14">
-        <v>-15.11452303643507</v>
+        <v>-1.305803571428571</v>
       </c>
       <c r="AL14">
-        <v>4.34</v>
+        <v>0.406</v>
       </c>
       <c r="AM14">
-        <v>0.79</v>
+        <v>-0.207</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="AO14">
-        <v>10.13824884792627</v>
+        <v>44.08866995073891</v>
       </c>
       <c r="AP14">
-        <v>-5.474406205665722</v>
+        <v>-2.954545454545454</v>
       </c>
       <c r="AQ14">
-        <v>55.69620253164557</v>
+        <v>-86.47342995169083</v>
       </c>
     </row>
     <row r="15">
@@ -2087,7 +2054,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PEH Wertpapier AG (DB:PEH)</t>
+          <t>DWS Group GmbH &amp; Co. KGaA (XTRA:DWS)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2095,119 +2062,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D15">
-        <v>0.123</v>
+      <c r="F15">
+        <v>0.06309999999999999</v>
       </c>
       <c r="G15">
-        <v>0.0592290585618977</v>
+        <v>0.2411772072636193</v>
       </c>
       <c r="H15">
-        <v>0.0592290585618977</v>
+        <v>0.2285284909204759</v>
       </c>
       <c r="I15">
-        <v>0.04315065719321417</v>
+        <v>0.2496931747025673</v>
       </c>
       <c r="J15">
-        <v>0.02250932550555112</v>
+        <v>0.1756186579690304</v>
       </c>
       <c r="K15">
-        <v>-1.08</v>
+        <v>675.2</v>
       </c>
       <c r="L15">
-        <v>-0.008005930318754633</v>
+        <v>0.1691170945522855</v>
       </c>
       <c r="M15">
-        <v>9.776</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.3103492063492063</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>-9.05185185185185</v>
+        <v>-0</v>
       </c>
       <c r="P15">
-        <v>0.496</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.01574603174603175</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>-0.4592592592592592</v>
+        <v>-0</v>
       </c>
       <c r="S15">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="T15">
-        <v>0.9492635024549918</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2818.2</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.3310155277314478</v>
       </c>
       <c r="W15">
-        <v>-0.05167464114832537</v>
+        <v>0.09242225142356549</v>
       </c>
       <c r="X15">
-        <v>0.05111280771599148</v>
+        <v>0.03549593673447905</v>
       </c>
       <c r="Y15">
-        <v>-0.1027874488643168</v>
+        <v>0.05692631468908643</v>
       </c>
       <c r="Z15">
-        <v>5.159709706409312</v>
+        <v>0.7472533642778266</v>
       </c>
       <c r="AA15">
-        <v>0.1161415852957188</v>
+        <v>0.1312316329973149</v>
       </c>
       <c r="AB15">
-        <v>0.04721268810118116</v>
+        <v>0.03519593592663914</v>
       </c>
       <c r="AC15">
-        <v>0.06892889719453762</v>
+        <v>0.09603569707067577</v>
       </c>
       <c r="AD15">
-        <v>0.034</v>
+        <v>117.4</v>
       </c>
       <c r="AE15">
-        <v>5.244881723177046</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>5.278881723177046</v>
+        <v>117.4</v>
       </c>
       <c r="AG15">
-        <v>5.278881723177046</v>
+        <v>-2700.8</v>
       </c>
       <c r="AH15">
-        <v>0.1435302400684586</v>
+        <v>0.01360181666512189</v>
       </c>
       <c r="AI15">
-        <v>0.1581503468856953</v>
+        <v>0.01408146619968335</v>
       </c>
       <c r="AJ15">
-        <v>0.1435302400684586</v>
+        <v>-0.4646137966626526</v>
       </c>
       <c r="AK15">
-        <v>0.1581503468856953</v>
+        <v>-0.4893640152201486</v>
       </c>
       <c r="AL15">
-        <v>0.099</v>
+        <v>22.3</v>
       </c>
       <c r="AM15">
-        <v>-0.16</v>
+        <v>22.3</v>
       </c>
       <c r="AN15">
-        <v>0.004857142857142858</v>
+        <v>0.1112690740214198</v>
       </c>
       <c r="AO15">
-        <v>50.80808080808081</v>
+        <v>44.70403587443946</v>
       </c>
       <c r="AP15">
-        <v>0.7541259604538636</v>
+        <v>-2.559757368969766</v>
       </c>
       <c r="AQ15">
-        <v>-31.4375</v>
+        <v>44.70403587443946</v>
       </c>
     </row>
     <row r="16">
@@ -2218,7 +2182,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deutsche Beteiligungs AG (XTRA:DBAN)</t>
+          <t>Deutsche Balaton AG (DB:BBHK)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2226,119 +2190,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="F16">
-        <v>0.025</v>
+      <c r="D16">
+        <v>0.0259</v>
       </c>
       <c r="G16">
-        <v>0.5868263473053892</v>
+        <v>0.2889344262295083</v>
       </c>
       <c r="H16">
-        <v>0.5868263473053892</v>
+        <v>0.2207991803278689</v>
       </c>
       <c r="I16">
-        <v>0.586656165849894</v>
+        <v>0.3152213276383199</v>
       </c>
       <c r="J16">
-        <v>0.586656165849894</v>
+        <v>0.263261768137498</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>35.1</v>
       </c>
       <c r="L16">
-        <v>0.5988023952095808</v>
+        <v>0.1798155737704918</v>
       </c>
       <c r="M16">
-        <v>23.8</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.03575184016824395</v>
+        <v>-0</v>
       </c>
       <c r="O16">
-        <v>0.476</v>
+        <v>-0</v>
       </c>
       <c r="P16">
-        <v>23.8</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.03575184016824395</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>0.476</v>
+        <v>-0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="V16">
-        <v>0.07195433378398677</v>
+        <v>0.1841591884510339</v>
       </c>
       <c r="W16">
-        <v>0.0969743987587277</v>
+        <v>0.1081330868761553</v>
       </c>
       <c r="X16">
-        <v>0.04780579801706948</v>
+        <v>0.04520219815419804</v>
       </c>
       <c r="Y16">
-        <v>0.04916860074165821</v>
+        <v>0.06293088872195722</v>
       </c>
       <c r="Z16">
-        <v>0.1705296044413567</v>
+        <v>0.4616742010763976</v>
       </c>
       <c r="AA16">
-        <v>0.1000422439054654</v>
+        <v>0.1215411664788392</v>
       </c>
       <c r="AB16">
-        <v>0.04774475502323621</v>
+        <v>0.03395529000236805</v>
       </c>
       <c r="AC16">
-        <v>0.05229748888222915</v>
+        <v>0.08758587647647116</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="AE16">
-        <v>1.451050757669249</v>
+        <v>0.7089842249997526</v>
       </c>
       <c r="AF16">
-        <v>1.451050757669249</v>
+        <v>140.5089842249998</v>
       </c>
       <c r="AG16">
-        <v>-46.44894924233075</v>
+        <v>93.30898422499975</v>
       </c>
       <c r="AH16">
-        <v>0.002174995836432126</v>
+        <v>0.3540972856232709</v>
       </c>
       <c r="AI16">
-        <v>0.002883353657155053</v>
+        <v>0.2382683458853146</v>
       </c>
       <c r="AJ16">
-        <v>-0.07500826875545756</v>
+        <v>0.2668952699595054</v>
       </c>
       <c r="AK16">
-        <v>-0.1020069003136004</v>
+        <v>0.1719952792271194</v>
       </c>
       <c r="AL16">
-        <v>0.666</v>
+        <v>3.54</v>
       </c>
       <c r="AM16">
-        <v>-0.374</v>
+        <v>-5.39</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.969763149366661</v>
       </c>
       <c r="AO16">
-        <v>72.67267267267266</v>
+        <v>17.2316384180791</v>
       </c>
       <c r="AP16">
-        <v>-0.9312885805263202</v>
+        <v>1.314711005945919</v>
       </c>
       <c r="AQ16">
-        <v>-129.4117647058823</v>
+        <v>-11.31725417439703</v>
       </c>
     </row>
     <row r="17">
@@ -2349,7 +2310,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ernst Russ AG (XTRA:HXCK)</t>
+          <t>Heidelberger Beteiligungsholding AG (DB:IPOK)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2358,25 +2319,28 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.141</v>
+        <v>0.208</v>
+      </c>
+      <c r="E17">
+        <v>0.198</v>
       </c>
       <c r="G17">
-        <v>0.2485549132947977</v>
+        <v>1.124260355029586</v>
       </c>
       <c r="H17">
-        <v>0.2485549132947977</v>
+        <v>1.124260355029586</v>
       </c>
       <c r="I17">
-        <v>0.08304980426492656</v>
+        <v>0.8836291913214991</v>
       </c>
       <c r="J17">
-        <v>0.08304980426492656</v>
+        <v>0.8836291913214991</v>
       </c>
       <c r="K17">
-        <v>4.02</v>
+        <v>4.92</v>
       </c>
       <c r="L17">
-        <v>0.07745664739884392</v>
+        <v>0.9704142011834319</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2400,73 +2364,73 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>9.130000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="V17">
-        <v>0.3181184668989547</v>
+        <v>2.624671916010499e-05</v>
       </c>
       <c r="W17">
-        <v>0.07570621468926553</v>
+        <v>0.1944664031620553</v>
       </c>
       <c r="X17">
-        <v>0.07952798397191832</v>
+        <v>0.03734769424583467</v>
       </c>
       <c r="Y17">
-        <v>-0.003821769282652793</v>
+        <v>0.1571187089162207</v>
       </c>
       <c r="Z17">
-        <v>0.885535935612617</v>
+        <v>0.1424717585567358</v>
       </c>
       <c r="AA17">
-        <v>0.07354358612218645</v>
+        <v>0.1258922047996403</v>
       </c>
       <c r="AB17">
-        <v>0.04541248615415534</v>
+        <v>0.04145578983218774</v>
       </c>
       <c r="AC17">
-        <v>0.02813109996803111</v>
+        <v>0.08443641496745259</v>
       </c>
       <c r="AD17">
-        <v>43</v>
+        <v>4.41</v>
       </c>
       <c r="AE17">
-        <v>2.598575793251563</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>45.59857579325156</v>
+        <v>4.41</v>
       </c>
       <c r="AG17">
-        <v>36.46857579325156</v>
+        <v>4.409</v>
       </c>
       <c r="AH17">
-        <v>0.6137207248781911</v>
+        <v>0.1037402964008469</v>
       </c>
       <c r="AI17">
-        <v>0.406772124182479</v>
+        <v>0.1285339551151268</v>
       </c>
       <c r="AJ17">
-        <v>0.5596036947155136</v>
+        <v>0.1037192124020796</v>
       </c>
       <c r="AK17">
-        <v>0.3541718967394096</v>
+        <v>0.128508554606663</v>
       </c>
       <c r="AL17">
-        <v>2.04</v>
+        <v>0.041</v>
       </c>
       <c r="AM17">
-        <v>-3.86</v>
+        <v>-0.273</v>
       </c>
       <c r="AN17">
-        <v>3.335919317300232</v>
+        <v>0.9821826280623608</v>
       </c>
       <c r="AO17">
-        <v>1.245098039215686</v>
+        <v>109.2682926829268</v>
       </c>
       <c r="AP17">
-        <v>2.829214568910129</v>
+        <v>0.9819599109131403</v>
       </c>
       <c r="AQ17">
-        <v>-0.6580310880829016</v>
+        <v>-16.41025641025641</v>
       </c>
     </row>
     <row r="18">
@@ -2477,7 +2441,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DWS Group GmbH &amp; Co. KGaA (XTRA:DWS)</t>
+          <t>Shareholder Value Beteiligungen AG (XTRA:SVE)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2485,26 +2449,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="F18">
-        <v>0.117</v>
+      <c r="D18">
+        <v>-0.0517</v>
+      </c>
+      <c r="E18">
+        <v>-0.413</v>
       </c>
       <c r="G18">
-        <v>0.3201603433615419</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2883751062882132</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2942836746870772</v>
+        <v>0.9795620437956205</v>
       </c>
       <c r="J18">
-        <v>0.2010773503288345</v>
+        <v>0.9795620437956205</v>
       </c>
       <c r="K18">
-        <v>447.1</v>
+        <v>0.524</v>
       </c>
       <c r="L18">
-        <v>0.1810341337004495</v>
+        <v>0.07649635036496351</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2528,73 +2495,67 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>2071.7</v>
+        <v>0.007</v>
       </c>
       <c r="V18">
-        <v>0.2913127847460487</v>
+        <v>8.373205741626795e-05</v>
       </c>
       <c r="W18">
-        <v>0.06121806282005642</v>
+        <v>0.008264984227129337</v>
       </c>
       <c r="X18">
-        <v>0.04815451458901888</v>
+        <v>0.03564088566935839</v>
       </c>
       <c r="Y18">
-        <v>0.01306354823103753</v>
+        <v>-0.02737590144222905</v>
       </c>
       <c r="Z18">
-        <v>0.3321213223418833</v>
+        <v>0.09435911564157311</v>
       </c>
       <c r="AA18">
-        <v>0.06678207548421465</v>
+        <v>0.09243060816860665</v>
       </c>
       <c r="AB18">
-        <v>0.04768854001221218</v>
+        <v>0.03516786281852448</v>
       </c>
       <c r="AC18">
-        <v>0.01909353547200247</v>
+        <v>0.05726274535008218</v>
       </c>
       <c r="AD18">
-        <v>109</v>
+        <v>1.82</v>
       </c>
       <c r="AE18">
-        <v>30.53804312662759</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>139.5380431266276</v>
+        <v>1.82</v>
       </c>
       <c r="AG18">
-        <v>-1932.161956873372</v>
+        <v>1.813</v>
       </c>
       <c r="AH18">
-        <v>0.0192436059411248</v>
+        <v>0.02130648560056193</v>
       </c>
       <c r="AI18">
-        <v>0.01874217003342866</v>
+        <v>0.02799138726545678</v>
       </c>
       <c r="AJ18">
-        <v>-0.3730447088632419</v>
+        <v>0.02122627703042863</v>
       </c>
       <c r="AK18">
-        <v>-0.3595764836899674</v>
+        <v>0.02788673034623845</v>
       </c>
       <c r="AL18">
-        <v>15.3</v>
+        <v>0.019</v>
       </c>
       <c r="AM18">
-        <v>15.3</v>
-      </c>
-      <c r="AN18">
-        <v>0.1503033645890789</v>
+        <v>-0.6</v>
       </c>
       <c r="AO18">
-        <v>46.25490196078432</v>
-      </c>
-      <c r="AP18">
-        <v>-2.664315991276023</v>
+        <v>353.1578947368421</v>
       </c>
       <c r="AQ18">
-        <v>46.25490196078432</v>
+        <v>-11.18333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -2605,7 +2566,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Blue Cap AG (XTRA:B7E)</t>
+          <t>Deutsche Effecten- und Wechsel-Beteiligungsgesellschaft AG (XTRA:EFF)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2614,124 +2575,115 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.19</v>
-      </c>
-      <c r="E19">
-        <v>0.3</v>
-      </c>
-      <c r="F19">
-        <v>0.186</v>
+        <v>1.651</v>
       </c>
       <c r="G19">
-        <v>0.07276386404293381</v>
+        <v>0.6657608695652174</v>
       </c>
       <c r="H19">
-        <v>0.05545617173524151</v>
+        <v>0.6657608695652174</v>
       </c>
       <c r="I19">
-        <v>0.02827394106618105</v>
+        <v>0.6404306815232259</v>
       </c>
       <c r="J19">
-        <v>0.02827394106618105</v>
+        <v>0.6404306815232259</v>
       </c>
       <c r="K19">
-        <v>8.25</v>
+        <v>1.48</v>
       </c>
       <c r="L19">
-        <v>0.03689624329159213</v>
+        <v>0.4021739130434782</v>
       </c>
       <c r="M19">
-        <v>7.93</v>
+        <v>-0</v>
       </c>
       <c r="N19">
-        <v>0.1057333333333333</v>
+        <v>-0</v>
       </c>
       <c r="O19">
-        <v>0.9612121212121212</v>
+        <v>-0</v>
       </c>
       <c r="P19">
-        <v>7.93</v>
+        <v>-0</v>
       </c>
       <c r="Q19">
-        <v>0.1057333333333333</v>
+        <v>-0</v>
       </c>
       <c r="R19">
-        <v>0.9612121212121212</v>
+        <v>-0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
-        <v>24</v>
+        <v>0.631</v>
       </c>
       <c r="V19">
-        <v>0.32</v>
+        <v>0.02354477611940298</v>
       </c>
       <c r="W19">
-        <v>0.1211453744493392</v>
+        <v>0.1465346534653465</v>
       </c>
       <c r="X19">
-        <v>0.06764640044692725</v>
+        <v>0.04876256994349469</v>
       </c>
       <c r="Y19">
-        <v>0.05349897400241196</v>
+        <v>0.09777208352185184</v>
       </c>
       <c r="Z19">
-        <v>2.021412254303523</v>
+        <v>0.1398384803082574</v>
       </c>
       <c r="AA19">
-        <v>0.05715329094863399</v>
+        <v>0.0895568532469895</v>
       </c>
       <c r="AB19">
-        <v>0.04585313500145408</v>
+        <v>0.03566209528584326</v>
       </c>
       <c r="AC19">
-        <v>0.0113001559471799</v>
+        <v>0.05389475796114624</v>
       </c>
       <c r="AD19">
-        <v>64.2</v>
+        <v>19.9</v>
       </c>
       <c r="AE19">
-        <v>10.38973388800959</v>
+        <v>0.04607545997264277</v>
       </c>
       <c r="AF19">
-        <v>74.58973388800959</v>
+        <v>19.94607545997264</v>
       </c>
       <c r="AG19">
-        <v>50.58973388800959</v>
+        <v>19.31507545997264</v>
       </c>
       <c r="AH19">
-        <v>0.4986286956286133</v>
+        <v>0.4266898400284299</v>
       </c>
       <c r="AI19">
-        <v>0.5264300513611291</v>
+        <v>0.6342945874235333</v>
       </c>
       <c r="AJ19">
-        <v>0.4028174303890259</v>
+        <v>0.4188451448320388</v>
       </c>
       <c r="AK19">
-        <v>0.4298568126269147</v>
+        <v>0.6268060412528287</v>
       </c>
       <c r="AL19">
-        <v>2.26</v>
+        <v>0.849</v>
       </c>
       <c r="AM19">
-        <v>2.184</v>
+        <v>0.834</v>
       </c>
       <c r="AN19">
-        <v>4.123314065510598</v>
+        <v>8.410819949281487</v>
       </c>
       <c r="AO19">
-        <v>2.269911504424779</v>
+        <v>2.744405182567727</v>
       </c>
       <c r="AP19">
-        <v>3.249180082723802</v>
+        <v>8.163599095508301</v>
       </c>
       <c r="AQ19">
-        <v>2.348901098901099</v>
+        <v>2.793764988009593</v>
       </c>
     </row>
     <row r="20">
@@ -2742,7 +2694,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shareholder Value Beteiligungen AG (XTRA:SVE)</t>
+          <t>Ernst Russ AG (XTRA:HXCK)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2751,34 +2703,37 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.158</v>
+        <v>0.287</v>
+      </c>
+      <c r="E20">
+        <v>-0.0555</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.1519480519480519</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1519480519480519</v>
       </c>
       <c r="I20">
-        <v>1.196923076923077</v>
+        <v>0.1008948714175166</v>
       </c>
       <c r="J20">
-        <v>1.196923076923077</v>
+        <v>0.07790838766848235</v>
       </c>
       <c r="K20">
-        <v>-4.84</v>
+        <v>4.45</v>
       </c>
       <c r="L20">
-        <v>-1.489230769230769</v>
+        <v>0.0577922077922078</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.005597014925373134</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="P20">
         <v>-0</v>
@@ -2787,73 +2742,82 @@
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0.005</v>
+        <v>14.9</v>
       </c>
       <c r="V20">
-        <v>6.265664160401002e-05</v>
+        <v>0.2779850746268657</v>
       </c>
       <c r="W20">
-        <v>-0.069241773962804</v>
+        <v>0.07960644007155636</v>
       </c>
       <c r="X20">
-        <v>0.05006723838483895</v>
+        <v>0.05611992195339977</v>
       </c>
       <c r="Y20">
-        <v>-0.1193090123476429</v>
+        <v>0.02348651811815659</v>
       </c>
       <c r="Z20">
-        <v>0.04156807571784869</v>
+        <v>0.8922831752457926</v>
       </c>
       <c r="AA20">
-        <v>0.04975378908997889</v>
+        <v>0.06951634352711358</v>
       </c>
       <c r="AB20">
-        <v>0.04693228790011402</v>
+        <v>0.03576759441320527</v>
       </c>
       <c r="AC20">
-        <v>0.002821501189864864</v>
+        <v>0.03374874911390831</v>
       </c>
       <c r="AD20">
-        <v>9.199999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.005474504256123</v>
       </c>
       <c r="AF20">
-        <v>9.199999999999999</v>
+        <v>61.60547450425612</v>
       </c>
       <c r="AG20">
-        <v>9.194999999999999</v>
+        <v>46.70547450425612</v>
       </c>
       <c r="AH20">
-        <v>0.1033707865168539</v>
+        <v>0.5347443319803364</v>
       </c>
       <c r="AI20">
-        <v>0.1267217630853995</v>
+        <v>0.4378328186682789</v>
       </c>
       <c r="AJ20">
-        <v>0.1033204112590595</v>
+        <v>0.4656323569086385</v>
       </c>
       <c r="AK20">
-        <v>0.1266616158137613</v>
+        <v>0.3712515269172649</v>
       </c>
       <c r="AL20">
-        <v>0.027</v>
+        <v>3.93</v>
       </c>
       <c r="AM20">
-        <v>-1.503</v>
+        <v>1.49</v>
+      </c>
+      <c r="AN20">
+        <v>3.502890173410405</v>
       </c>
       <c r="AO20">
-        <v>144.0740740740741</v>
+        <v>1.798982188295165</v>
+      </c>
+      <c r="AP20">
+        <v>2.699738410650643</v>
       </c>
       <c r="AQ20">
-        <v>-2.588157019294744</v>
+        <v>4.74496644295302</v>
       </c>
     </row>
     <row r="21">
@@ -2873,25 +2837,28 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.293</v>
+        <v>-0.456</v>
+      </c>
+      <c r="E21">
+        <v>-0.198</v>
       </c>
       <c r="G21">
-        <v>1.105751391465677</v>
+        <v>4.325153374233129</v>
       </c>
       <c r="H21">
-        <v>1.105751391465677</v>
+        <v>4.325153374233129</v>
       </c>
       <c r="I21">
-        <v>0.7031539888682746</v>
+        <v>4.926380368098159</v>
       </c>
       <c r="J21">
-        <v>0.7031539888682746</v>
+        <v>3.704332524849003</v>
       </c>
       <c r="K21">
-        <v>-1.29</v>
+        <v>5.82</v>
       </c>
       <c r="L21">
-        <v>-0.2393320964749536</v>
+        <v>3.570552147239264</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2900,7 +2867,7 @@
         <v>-0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P21">
         <v>-0</v>
@@ -2909,79 +2876,79 @@
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>14.6</v>
+        <v>7.38</v>
       </c>
       <c r="V21">
-        <v>0.2059238363892807</v>
+        <v>0.0582018927444795</v>
       </c>
       <c r="W21">
-        <v>-0.0138412017167382</v>
+        <v>0.06495535714285715</v>
       </c>
       <c r="X21">
-        <v>0.05261255720591398</v>
+        <v>0.03540734859515163</v>
       </c>
       <c r="Y21">
-        <v>-0.06645375892265218</v>
+        <v>0.02954800854770551</v>
       </c>
       <c r="Z21">
-        <v>0.06065721359441818</v>
+        <v>0.01767895878524946</v>
       </c>
       <c r="AA21">
-        <v>0.04265136169255008</v>
+        <v>0.06548874203366459</v>
       </c>
       <c r="AB21">
-        <v>0.04619475943132011</v>
+        <v>0.03527996546443545</v>
       </c>
       <c r="AC21">
-        <v>-0.003543397738770028</v>
+        <v>0.03020877656922914</v>
       </c>
       <c r="AD21">
-        <v>17.2</v>
+        <v>1.13</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>17.2</v>
+        <v>1.13</v>
       </c>
       <c r="AG21">
-        <v>2.6</v>
+        <v>-6.25</v>
       </c>
       <c r="AH21">
-        <v>0.1952326901248581</v>
+        <v>0.008832955522551394</v>
       </c>
       <c r="AI21">
-        <v>0.1610486891385768</v>
+        <v>0.009688759324359083</v>
       </c>
       <c r="AJ21">
-        <v>0.03537414965986394</v>
+        <v>-0.05184570717544587</v>
       </c>
       <c r="AK21">
-        <v>0.02819956616052061</v>
+        <v>-0.05720823798627003</v>
       </c>
       <c r="AL21">
-        <v>0.043</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AM21">
-        <v>-2.497</v>
+        <v>-9.172000000000001</v>
       </c>
       <c r="AN21">
-        <v>7.610619469026549</v>
+        <v>0.1407222914072229</v>
       </c>
       <c r="AO21">
-        <v>88.13953488372094</v>
+        <v>91.25</v>
       </c>
       <c r="AP21">
-        <v>1.150442477876106</v>
+        <v>-0.7783312577833127</v>
       </c>
       <c r="AQ21">
-        <v>-1.517821385662795</v>
+        <v>-0.8754906236371565</v>
       </c>
     </row>
     <row r="22">
@@ -2992,7 +2959,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RM Rheiner Management AG (DUSE:RMO)</t>
+          <t>BAVARIA Industries Group AG (XTRA:B8A)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3001,25 +2968,25 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.464</v>
+        <v>-0.296</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0828804347826087</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0828804347826087</v>
       </c>
       <c r="I22">
-        <v>7.266666666666667</v>
+        <v>0.06531194708957365</v>
       </c>
       <c r="J22">
-        <v>7.266666666666667</v>
+        <v>0.06531194708957365</v>
       </c>
       <c r="K22">
-        <v>-0.125</v>
+        <v>-19</v>
       </c>
       <c r="L22">
-        <v>-4.166666666666667</v>
+        <v>-0.1290760869565218</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3043,67 +3010,73 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.511</v>
+        <v>123.7</v>
       </c>
       <c r="V22">
-        <v>0.09324817518248174</v>
+        <v>0.3539341917024321</v>
       </c>
       <c r="W22">
-        <v>-0.02297794117647059</v>
+        <v>-0.05241379310344828</v>
       </c>
       <c r="X22">
-        <v>0.04776221733662046</v>
+        <v>0.03672548702143677</v>
       </c>
       <c r="Y22">
-        <v>-0.07074015851309105</v>
+        <v>-0.08913928012488505</v>
       </c>
       <c r="Z22">
-        <v>0.005255781359495445</v>
+        <v>0.6144844497617353</v>
       </c>
       <c r="AA22">
-        <v>0.03819201121233357</v>
+        <v>0.04013317587020424</v>
       </c>
       <c r="AB22">
-        <v>0.04776221733662046</v>
+        <v>0.03497095124647389</v>
       </c>
       <c r="AC22">
-        <v>-0.009570206124286898</v>
+        <v>0.005162224623730345</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>7.980406942073792</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>28.48040694207379</v>
       </c>
       <c r="AG22">
-        <v>-0.511</v>
+        <v>-95.2195930579262</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>0.07534889750631564</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.07885368750537315</v>
       </c>
       <c r="AJ22">
-        <v>-0.1028375930770779</v>
+        <v>-0.3744668895374926</v>
       </c>
       <c r="AK22">
-        <v>-0.1094452773613194</v>
+        <v>-0.40095768018939</v>
       </c>
       <c r="AL22">
-        <v>0.005</v>
+        <v>2.52</v>
       </c>
       <c r="AM22">
-        <v>-0.126</v>
+        <v>2.52</v>
+      </c>
+      <c r="AN22">
+        <v>1.129476584022038</v>
       </c>
       <c r="AO22">
-        <v>43.6</v>
+        <v>3.714285714285714</v>
+      </c>
+      <c r="AP22">
+        <v>-5.246258570684638</v>
       </c>
       <c r="AQ22">
-        <v>-1.73015873015873</v>
+        <v>3.714285714285714</v>
       </c>
     </row>
     <row r="23">
@@ -3114,7 +3087,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Coreo AG (XTRA:CORE)</t>
+          <t>AdCapital AG (DB:ADC)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3123,31 +3096,25 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.483</v>
-      </c>
-      <c r="E23">
-        <v>0.414</v>
-      </c>
-      <c r="F23">
-        <v>0.9009999999999999</v>
+        <v>0.0118</v>
       </c>
       <c r="G23">
-        <v>0.08548387096774193</v>
+        <v>0.05756791720569211</v>
       </c>
       <c r="H23">
-        <v>0.08548387096774193</v>
+        <v>0.04663648124191462</v>
       </c>
       <c r="I23">
-        <v>0.07491976032588693</v>
+        <v>0.008990944372574385</v>
       </c>
       <c r="J23">
-        <v>0.03745988016294347</v>
+        <v>0.008990944372574385</v>
       </c>
       <c r="K23">
-        <v>1.21</v>
+        <v>-5.15</v>
       </c>
       <c r="L23">
-        <v>0.09758064516129032</v>
+        <v>-0.03331177231565331</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3156,7 +3123,7 @@
         <v>-0</v>
       </c>
       <c r="O23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3165,79 +3132,79 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>18.3</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="V23">
-        <v>0.6727941176470589</v>
+        <v>0.3251937984496124</v>
       </c>
       <c r="W23">
-        <v>0.06505376344086021</v>
+        <v>-0.07093663911845731</v>
       </c>
       <c r="X23">
-        <v>0.07726003882783393</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y23">
-        <v>-0.01220627538697372</v>
+        <v>-0.1061821352887611</v>
       </c>
       <c r="Z23">
-        <v>0.6992622556587406</v>
+        <v>2.400621118012423</v>
       </c>
       <c r="AA23">
-        <v>0.02619428029944596</v>
+        <v>0.02158385093167702</v>
       </c>
       <c r="AB23">
-        <v>0.04548025839363722</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC23">
-        <v>-0.01928597809419126</v>
+        <v>-0.01366164523862675</v>
       </c>
       <c r="AD23">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.02997485979501064</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>40.12997485979501</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>21.82997485979501</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="AH23">
-        <v>0.5960194540895034</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.545022253996553</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.4452373251713774</v>
+        <v>-0.4819069500287191</v>
       </c>
       <c r="AK23">
-        <v>0.3945415647686757</v>
+        <v>-0.1441333104277616</v>
       </c>
       <c r="AL23">
-        <v>2.93</v>
+        <v>1.07</v>
       </c>
       <c r="AM23">
-        <v>2.912</v>
+        <v>0.919</v>
       </c>
       <c r="AN23">
-        <v>41.64070612668743</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>0.3085324232081911</v>
+        <v>1.299065420560747</v>
       </c>
       <c r="AP23">
-        <v>22.66871740373314</v>
+        <v>-1.210678210678211</v>
       </c>
       <c r="AQ23">
-        <v>0.3104395604395604</v>
+        <v>1.512513601741023</v>
       </c>
     </row>
     <row r="24">
@@ -3248,7 +3215,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>German Startups Group GmbH &amp; Co. KGaA (XTRA:GSJ)</t>
+          <t>FinLab AG (XTRA:A7A)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3256,32 +3223,38 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D24">
+        <v>-0.125</v>
+      </c>
+      <c r="E24">
+        <v>0.4970000000000001</v>
+      </c>
       <c r="G24">
-        <v>0.1532967032967033</v>
+        <v>0.7226666666666667</v>
       </c>
       <c r="H24">
-        <v>0.1532967032967033</v>
+        <v>0.7226666666666667</v>
       </c>
       <c r="I24">
-        <v>0.100712017604365</v>
+        <v>0.4613333333333333</v>
       </c>
       <c r="J24">
-        <v>0.05035600880218251</v>
+        <v>0.449826635873749</v>
       </c>
       <c r="K24">
-        <v>-1.47</v>
+        <v>42.2</v>
       </c>
       <c r="L24">
-        <v>-0.08076923076923077</v>
+        <v>11.25333333333333</v>
       </c>
       <c r="M24">
-        <v>0.455</v>
+        <v>-0</v>
       </c>
       <c r="N24">
-        <v>0.02198067632850242</v>
+        <v>-0</v>
       </c>
       <c r="O24">
-        <v>-0.3095238095238095</v>
+        <v>-0</v>
       </c>
       <c r="P24">
         <v>-0</v>
@@ -3290,82 +3263,79 @@
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S24">
-        <v>0.455</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.287</v>
+        <v>6.37</v>
       </c>
       <c r="V24">
-        <v>0.01386473429951691</v>
+        <v>0.04615942028985507</v>
       </c>
       <c r="W24">
-        <v>-0.0407202216066482</v>
+        <v>0.3499170812603649</v>
       </c>
       <c r="X24">
-        <v>0.05773021659599126</v>
+        <v>0.03533248878681101</v>
       </c>
       <c r="Y24">
-        <v>-0.09845043820263946</v>
+        <v>0.3145845924735539</v>
       </c>
       <c r="Z24">
-        <v>0.4116230926566951</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="AA24">
-        <v>0.02072769607700213</v>
+        <v>0.01516269559124997</v>
       </c>
       <c r="AB24">
-        <v>0.04648844711742643</v>
+        <v>0.035250150457446</v>
       </c>
       <c r="AC24">
-        <v>-0.0257607510404243</v>
+        <v>-0.02008745486619603</v>
       </c>
       <c r="AD24">
-        <v>8.24</v>
+        <v>0.661</v>
       </c>
       <c r="AE24">
-        <v>2.080206398002785</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>10.32020639800279</v>
+        <v>0.661</v>
       </c>
       <c r="AG24">
-        <v>10.03320639800278</v>
+        <v>-5.709</v>
       </c>
       <c r="AH24">
-        <v>0.3326930280730577</v>
+        <v>0.004767021729253359</v>
       </c>
       <c r="AI24">
-        <v>0.2287269323852119</v>
+        <v>0.003739512675307336</v>
       </c>
       <c r="AJ24">
-        <v>0.3264614263825983</v>
+        <v>-0.04315486314261741</v>
       </c>
       <c r="AK24">
-        <v>0.2237896238991673</v>
+        <v>-0.03350529077239995</v>
       </c>
       <c r="AL24">
-        <v>0.622</v>
+        <v>0.028</v>
       </c>
       <c r="AM24">
-        <v>0.5639999999999999</v>
+        <v>-0.181</v>
       </c>
       <c r="AN24">
-        <v>2.729380589599205</v>
+        <v>0.3177884615384615</v>
       </c>
       <c r="AO24">
-        <v>2.813504823151125</v>
+        <v>61.78571428571428</v>
       </c>
       <c r="AP24">
-        <v>3.323354222591184</v>
+        <v>-2.744711538461538</v>
       </c>
       <c r="AQ24">
-        <v>3.102836879432624</v>
+        <v>-9.558011049723756</v>
       </c>
     </row>
     <row r="25">
@@ -3376,7 +3346,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AdCapital AG (DB:ADC)</t>
+          <t>Quirin Privatbank AG (XTRA:QB7)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3385,115 +3355,115 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.0333</v>
+        <v>0.0309</v>
+      </c>
+      <c r="E25">
+        <v>0.0125</v>
       </c>
       <c r="G25">
-        <v>0.06644029428409734</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.05614035087719298</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01035653650254669</v>
+        <v>-0.04059251894516144</v>
       </c>
       <c r="J25">
-        <v>0.005178268251273345</v>
+        <v>-0.03375954143370773</v>
       </c>
       <c r="K25">
-        <v>-3.19</v>
+        <v>5.83</v>
       </c>
       <c r="L25">
-        <v>-0.01805319750990379</v>
+        <v>0.09433656957928803</v>
       </c>
       <c r="M25">
-        <v>-0</v>
+        <v>3.4286</v>
       </c>
       <c r="N25">
-        <v>-0</v>
+        <v>0.03936394948335247</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5880960548885077</v>
       </c>
       <c r="P25">
-        <v>-0</v>
+        <v>3.4286</v>
       </c>
       <c r="Q25">
-        <v>-0</v>
+        <v>0.03936394948335247</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.5880960548885077</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
       <c r="U25">
-        <v>8.199999999999999</v>
+        <v>515.2</v>
       </c>
       <c r="V25">
-        <v>0.2760942760942761</v>
+        <v>5.915040183696901</v>
       </c>
       <c r="W25">
-        <v>-0.04100257069408741</v>
+        <v>0.09588815789473684</v>
       </c>
       <c r="X25">
-        <v>0.04776221733662046</v>
+        <v>0.06227830876132029</v>
       </c>
       <c r="Y25">
-        <v>-0.08876478803070786</v>
+        <v>0.03360984913341655</v>
       </c>
       <c r="Z25">
-        <v>2.657142857142857</v>
+        <v>-0.3801745454822779</v>
       </c>
       <c r="AA25">
-        <v>0.0137593984962406</v>
+        <v>0.01283451832024996</v>
       </c>
       <c r="AB25">
-        <v>0.04776221733662046</v>
+        <v>0.03306607770062909</v>
       </c>
       <c r="AC25">
-        <v>-0.03400281884037986</v>
+        <v>-0.02023155938037913</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>108.7</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>20.94308835405488</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>129.6430883540549</v>
       </c>
       <c r="AG25">
-        <v>-8.199999999999999</v>
+        <v>-385.5569116459451</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>0.5981417416285952</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>0.6626510010894945</v>
       </c>
       <c r="AJ25">
-        <v>-0.3813953488372093</v>
+        <v>1.291834420987795</v>
       </c>
       <c r="AK25">
-        <v>-0.1273291925465839</v>
+        <v>1.206535980273602</v>
       </c>
       <c r="AL25">
-        <v>0.706</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.5479999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>2.592067988668556</v>
+        <v>64.70238095238096</v>
       </c>
       <c r="AP25">
-        <v>-0.9704142011834319</v>
-      </c>
-      <c r="AQ25">
-        <v>3.339416058394161</v>
+        <v>-229.498161694015</v>
       </c>
     </row>
     <row r="26">
@@ -3504,7 +3474,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FinLab AG (XTRA:A7A)</t>
+          <t>Coreo AG (XTRA:CORE)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3512,26 +3482,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E26">
-        <v>0.8</v>
+      <c r="D26">
+        <v>3.555</v>
       </c>
       <c r="G26">
-        <v>0.1384297520661157</v>
+        <v>-0.05066666666666667</v>
       </c>
       <c r="H26">
-        <v>0.1384297520661157</v>
+        <v>-0.05066666666666667</v>
       </c>
       <c r="I26">
-        <v>0.1836138214672797</v>
+        <v>-0.02725</v>
       </c>
       <c r="J26">
-        <v>0.1836138214672797</v>
+        <v>-0.013625</v>
       </c>
       <c r="K26">
-        <v>22.6</v>
+        <v>0.045</v>
       </c>
       <c r="L26">
-        <v>4.669421487603306</v>
+        <v>0.00375</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3555,73 +3525,73 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>9.35</v>
+        <v>6</v>
       </c>
       <c r="V26">
-        <v>0.1074712643678161</v>
+        <v>0.1617250673854447</v>
       </c>
       <c r="W26">
-        <v>0.1894383906119028</v>
+        <v>0.001351351351351351</v>
       </c>
       <c r="X26">
-        <v>0.04809120216418928</v>
+        <v>0.0605545933779397</v>
       </c>
       <c r="Y26">
-        <v>0.1413471884477135</v>
+        <v>-0.05920324202658835</v>
       </c>
       <c r="Z26">
-        <v>0.04355199036719542</v>
+        <v>0.2177858439201452</v>
       </c>
       <c r="AA26">
-        <v>0.007996747383826905</v>
+        <v>-0.002967332123411978</v>
       </c>
       <c r="AB26">
-        <v>0.04770023822627386</v>
+        <v>0.03312413754866625</v>
       </c>
       <c r="AC26">
-        <v>-0.03970349084244695</v>
+        <v>-0.03609146967207823</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>51.7</v>
       </c>
       <c r="AE26">
-        <v>1.431545520491832</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1.431545520491832</v>
+        <v>51.7</v>
       </c>
       <c r="AG26">
-        <v>-7.918454479508167</v>
+        <v>45.7</v>
       </c>
       <c r="AH26">
-        <v>0.01618817710429031</v>
+        <v>0.5822072072072072</v>
       </c>
       <c r="AI26">
-        <v>0.01173094640722586</v>
+        <v>0.6199040767386091</v>
       </c>
       <c r="AJ26">
-        <v>-0.1001302443875014</v>
+        <v>0.5519323671497585</v>
       </c>
       <c r="AK26">
-        <v>-0.07027286005824394</v>
+        <v>0.5904392764857881</v>
       </c>
       <c r="AL26">
-        <v>0.025</v>
+        <v>2.56</v>
       </c>
       <c r="AM26">
-        <v>-0.063</v>
+        <v>2.425</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>-163.6075949367089</v>
       </c>
       <c r="AO26">
-        <v>31.44</v>
+        <v>-0.127734375</v>
       </c>
       <c r="AP26">
-        <v>-6.560442816493925</v>
+        <v>-144.620253164557</v>
       </c>
       <c r="AQ26">
-        <v>-12.47619047619048</v>
+        <v>-0.1348453608247423</v>
       </c>
     </row>
     <row r="27">
@@ -3632,7 +3602,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BAVARIA Industries Group AG (XTRA:B8A)</t>
+          <t>MPC Münchmeyer Petersen Capital AG (XTRA:MPCK)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3641,34 +3611,34 @@
         </is>
       </c>
       <c r="D27">
-        <v>-0.277</v>
+        <v>0.0331</v>
       </c>
       <c r="G27">
-        <v>0.08768656716417909</v>
+        <v>-0.1058519793459552</v>
       </c>
       <c r="H27">
-        <v>0.08768656716417909</v>
+        <v>-0.1058519793459552</v>
       </c>
       <c r="I27">
-        <v>0.009414527320466791</v>
+        <v>-0.07555938037865748</v>
       </c>
       <c r="J27">
-        <v>0.004707263660233395</v>
+        <v>-0.03777969018932874</v>
       </c>
       <c r="K27">
-        <v>-0.134</v>
+        <v>-2.95</v>
       </c>
       <c r="L27">
-        <v>-0.0008333333333333333</v>
+        <v>-0.05077452667814114</v>
       </c>
       <c r="M27">
-        <v>-0</v>
+        <v>1.6</v>
       </c>
       <c r="N27">
-        <v>-0</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>-0.5423728813559322</v>
       </c>
       <c r="P27">
         <v>-0</v>
@@ -3680,76 +3650,79 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.6</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>134.8</v>
+        <v>17.3</v>
       </c>
       <c r="V27">
-        <v>0.4242996537614102</v>
+        <v>0.2246753246753247</v>
       </c>
       <c r="W27">
-        <v>-0.0003516137496720021</v>
+        <v>-0.02801519468186135</v>
       </c>
       <c r="X27">
-        <v>0.04862789472305377</v>
+        <v>0.03600263292218263</v>
       </c>
       <c r="Y27">
-        <v>-0.04897950847272577</v>
+        <v>-0.06401782760404398</v>
       </c>
       <c r="Z27">
-        <v>0.7717200313635828</v>
+        <v>0.639515685195377</v>
       </c>
       <c r="AA27">
-        <v>0.003632689659511969</v>
+        <v>-0.02416070445789763</v>
       </c>
       <c r="AB27">
-        <v>0.04742902027867617</v>
+        <v>0.03528456969215887</v>
       </c>
       <c r="AC27">
-        <v>-0.0437963306191642</v>
+        <v>-0.0594452741500565</v>
       </c>
       <c r="AD27">
-        <v>5.99</v>
+        <v>3.21</v>
       </c>
       <c r="AE27">
-        <v>7.765720034344701</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>13.7557200343447</v>
+        <v>3.21</v>
       </c>
       <c r="AG27">
-        <v>-121.0442799656553</v>
+        <v>-14.09</v>
       </c>
       <c r="AH27">
-        <v>0.04150092818708745</v>
+        <v>0.04001994763745169</v>
       </c>
       <c r="AI27">
-        <v>0.03635658008050214</v>
+        <v>0.02863259298902863</v>
       </c>
       <c r="AJ27">
-        <v>-0.6155136496640712</v>
+        <v>-0.2239707518677476</v>
       </c>
       <c r="AK27">
-        <v>-0.4969880401436944</v>
+        <v>-0.1486130155046936</v>
       </c>
       <c r="AL27">
-        <v>1.13</v>
+        <v>0.949</v>
       </c>
       <c r="AM27">
-        <v>-10.07</v>
+        <v>-9.651</v>
       </c>
       <c r="AN27">
-        <v>5.071972904318375</v>
+        <v>-1.866279069767442</v>
       </c>
       <c r="AO27">
-        <v>2.106194690265487</v>
+        <v>-4.625922023182297</v>
       </c>
       <c r="AP27">
-        <v>-102.4930397677014</v>
+        <v>8.19186046511628</v>
       </c>
       <c r="AQ27">
-        <v>-0.2363455809334657</v>
+        <v>0.4548751424722827</v>
       </c>
     </row>
     <row r="28">
@@ -3760,7 +3733,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Deutsche Balaton AG (DB:BBHK)</t>
+          <t>KST Beteiligungs AG (DB:KSW)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3768,29 +3741,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D28">
-        <v>-0.0501</v>
-      </c>
       <c r="E28">
-        <v>-0.103</v>
+        <v>-0.208</v>
       </c>
       <c r="G28">
-        <v>-0.1936295054484493</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="H28">
-        <v>-0.2984073763621123</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="I28">
-        <v>-0.01722022989480557</v>
+        <v>0.02559726962457338</v>
       </c>
       <c r="J28">
-        <v>-0.01456039156833091</v>
+        <v>0.02559726962457338</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>0.468</v>
       </c>
       <c r="L28">
-        <v>0.1005867560771165</v>
+        <v>-0.07986348122866894</v>
       </c>
       <c r="M28">
         <v>-0</v>
@@ -3814,73 +3784,73 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>55</v>
+        <v>0.169</v>
       </c>
       <c r="V28">
-        <v>0.2843846949327818</v>
+        <v>0.01983568075117371</v>
       </c>
       <c r="W28">
-        <v>0.03570365962511157</v>
+        <v>0.0612565445026178</v>
       </c>
       <c r="X28">
-        <v>0.06450675182480405</v>
+        <v>0.03786745300159854</v>
       </c>
       <c r="Y28">
-        <v>-0.02880309219969247</v>
+        <v>0.02338909150101926</v>
       </c>
       <c r="Z28">
-        <v>0.2580732432195996</v>
+        <v>-1.033509700176367</v>
       </c>
       <c r="AA28">
-        <v>-0.00375764747458647</v>
+        <v>-0.02645502645502645</v>
       </c>
       <c r="AB28">
-        <v>0.04601718316654864</v>
+        <v>0.03478583585370457</v>
       </c>
       <c r="AC28">
-        <v>-0.04977483064113511</v>
+        <v>-0.06124086230873102</v>
       </c>
       <c r="AD28">
-        <v>152.5</v>
+        <v>1.23</v>
       </c>
       <c r="AE28">
-        <v>9.471867132251521</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>161.9718671322515</v>
+        <v>1.23</v>
       </c>
       <c r="AG28">
-        <v>106.9718671322515</v>
+        <v>1.061</v>
       </c>
       <c r="AH28">
-        <v>0.4557813437493457</v>
+        <v>0.1261538461538461</v>
       </c>
       <c r="AI28">
-        <v>0.2830330764710123</v>
+        <v>0.141542002301496</v>
       </c>
       <c r="AJ28">
-        <v>0.3561314451767635</v>
+        <v>0.1107400062623943</v>
       </c>
       <c r="AK28">
-        <v>0.2068000870128549</v>
+        <v>0.1245159018894496</v>
       </c>
       <c r="AL28">
-        <v>4.62</v>
+        <v>0.021</v>
       </c>
       <c r="AM28">
-        <v>0.1200000000000001</v>
+        <v>-0.38</v>
       </c>
       <c r="AN28">
-        <v>19.60154241645244</v>
+        <v>-8.601398601398602</v>
       </c>
       <c r="AO28">
-        <v>-0.6298701298701299</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="AP28">
-        <v>13.74959731777012</v>
+        <v>-7.41958041958042</v>
       </c>
       <c r="AQ28">
-        <v>-24.24999999999998</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="29">
@@ -3891,7 +3861,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Heidelberger Beteiligungsholding AG (DB:IPOA)</t>
+          <t>ERWE Immobilien AG (XTRA:ERWE)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3900,28 +3870,31 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.334</v>
+        <v>2.326</v>
       </c>
       <c r="E29">
-        <v>-0.368</v>
+        <v>1.033</v>
+      </c>
+      <c r="F29">
+        <v>-0.251</v>
       </c>
       <c r="G29">
-        <v>-12.6984126984127</v>
+        <v>-0.4544095665171898</v>
       </c>
       <c r="H29">
-        <v>-12.6984126984127</v>
+        <v>-0.4544095665171898</v>
       </c>
       <c r="I29">
-        <v>-1.534391534391534</v>
+        <v>-0.6963135051399013</v>
       </c>
       <c r="J29">
-        <v>-1.534391534391534</v>
+        <v>-0.6963135051399013</v>
       </c>
       <c r="K29">
-        <v>0.361</v>
+        <v>11.7</v>
       </c>
       <c r="L29">
-        <v>1.91005291005291</v>
+        <v>1.748878923766816</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -3945,73 +3918,73 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0.014</v>
+        <v>17.8</v>
       </c>
       <c r="V29">
-        <v>0.0004081632653061225</v>
+        <v>0.2053056516724337</v>
       </c>
       <c r="W29">
-        <v>0.01415686274509804</v>
+        <v>0.2224334600760456</v>
       </c>
       <c r="X29">
-        <v>0.053766112001257</v>
+        <v>0.06759048659433178</v>
       </c>
       <c r="Y29">
-        <v>-0.03960924925615896</v>
+        <v>0.1548429734817138</v>
       </c>
       <c r="Z29">
-        <v>0.004406313384468328</v>
+        <v>0.06032097970130014</v>
       </c>
       <c r="AA29">
-        <v>-0.006761009955004313</v>
+        <v>-0.04200231280928514</v>
       </c>
       <c r="AB29">
-        <v>0.04749232380365728</v>
+        <v>0.03291207375735858</v>
       </c>
       <c r="AC29">
-        <v>-0.05425333375866159</v>
+        <v>-0.07491438656664372</v>
       </c>
       <c r="AD29">
-        <v>10.3</v>
+        <v>154.4</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>0.006686746929699601</v>
       </c>
       <c r="AF29">
-        <v>10.3</v>
+        <v>154.4066867469297</v>
       </c>
       <c r="AG29">
-        <v>10.286</v>
+        <v>136.6066867469297</v>
       </c>
       <c r="AH29">
-        <v>0.2309417040358745</v>
+        <v>0.6404081480701445</v>
       </c>
       <c r="AI29">
-        <v>0.2893258426966292</v>
+        <v>0.6795868949002939</v>
       </c>
       <c r="AJ29">
-        <v>0.2307002197999372</v>
+        <v>0.6117447208454806</v>
       </c>
       <c r="AK29">
-        <v>0.2890462541448885</v>
+        <v>0.652351120535231</v>
       </c>
       <c r="AL29">
-        <v>0.097</v>
+        <v>6.5</v>
       </c>
       <c r="AM29">
-        <v>-0.401</v>
+        <v>6.491</v>
       </c>
       <c r="AN29">
-        <v>-36.65480427046263</v>
+        <v>-34.1819791897277</v>
       </c>
       <c r="AO29">
-        <v>-2.989690721649484</v>
+        <v>-0.716923076923077</v>
       </c>
       <c r="AP29">
-        <v>-36.60498220640569</v>
+        <v>-30.24279095570726</v>
       </c>
       <c r="AQ29">
-        <v>0.7231920199501246</v>
+        <v>-0.7179171160067787</v>
       </c>
     </row>
     <row r="30">
@@ -4022,7 +3995,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>iVestos AG (DUSE:LWD)</t>
+          <t>Deutsche Beteiligungs AG (XTRA:DBAN)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4030,98 +4003,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D30">
+        <v>-0.251</v>
+      </c>
+      <c r="F30">
+        <v>0.057</v>
+      </c>
+      <c r="G30">
+        <v>-1.226027397260274</v>
+      </c>
+      <c r="H30">
+        <v>-1.226027397260274</v>
+      </c>
+      <c r="I30">
+        <v>-1.253424657534247</v>
+      </c>
+      <c r="J30">
+        <v>-1.253424657534247</v>
+      </c>
       <c r="K30">
-        <v>-0.064</v>
+        <v>-19.7</v>
+      </c>
+      <c r="L30">
+        <v>-1.349315068493151</v>
       </c>
       <c r="M30">
-        <v>-0</v>
+        <v>26.5</v>
       </c>
       <c r="N30">
-        <v>-0</v>
+        <v>0.04350681333114431</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>-1.345177664974619</v>
       </c>
       <c r="P30">
-        <v>-0</v>
+        <v>26.5</v>
       </c>
       <c r="Q30">
-        <v>-0</v>
+        <v>0.04350681333114431</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-1.345177664974619</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
       <c r="U30">
-        <v>0.386</v>
+        <v>21.6</v>
       </c>
       <c r="V30">
-        <v>0.04600715137067938</v>
+        <v>0.03546215728123461</v>
       </c>
       <c r="W30">
-        <v>-0.008938547486033519</v>
+        <v>-0.03926649392066972</v>
       </c>
       <c r="X30">
-        <v>0.04776221733662046</v>
+        <v>0.03586868219718202</v>
       </c>
       <c r="Y30">
-        <v>-0.05670076482265398</v>
+        <v>-0.07513517611785174</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.03217276333186426</v>
       </c>
       <c r="AA30">
-        <v>-0.03949807500356482</v>
+        <v>-0.04032613486117232</v>
       </c>
       <c r="AB30">
-        <v>0.04776221733662046</v>
+        <v>0.03512461956556122</v>
       </c>
       <c r="AC30">
-        <v>-0.08726029234018529</v>
+        <v>-0.07545075442673355</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="AG30">
-        <v>-0.386</v>
+        <v>-0.7000000000000028</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>0.03317460317460317</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>0.04032413660042446</v>
       </c>
       <c r="AJ30">
-        <v>-0.04822588705647176</v>
+        <v>-0.00115055884286654</v>
       </c>
       <c r="AK30">
-        <v>-0.05907560453014999</v>
+        <v>-0.001409301389168518</v>
       </c>
       <c r="AL30">
-        <v>0.008999999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="AM30">
-        <v>-0.157</v>
+        <v>0.5269999999999999</v>
       </c>
       <c r="AN30">
-        <v>-0</v>
+        <v>-1.167597765363128</v>
       </c>
       <c r="AO30">
-        <v>-30.77777777777778</v>
+        <v>-19.50959488272921</v>
       </c>
       <c r="AP30">
-        <v>1.795348837209302</v>
+        <v>0.03910614525139681</v>
       </c>
       <c r="AQ30">
-        <v>1.764331210191083</v>
+        <v>-34.7248576850095</v>
       </c>
     </row>
     <row r="31">
@@ -4132,7 +4129,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quirin Privatbank AG (XTRA:QB7)</t>
+          <t>Blue Cap AG (XTRA:B7E)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4141,46 +4138,49 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.0655</v>
+        <v>0.236</v>
       </c>
       <c r="E31">
-        <v>0.319</v>
+        <v>0.5920000000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.248</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.04277039848197344</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.03085388994307401</v>
       </c>
       <c r="I31">
-        <v>-0.04408144680078009</v>
+        <v>-0.01969639468690702</v>
       </c>
       <c r="J31">
-        <v>-0.03577046512642487</v>
+        <v>-0.0187408850637029</v>
       </c>
       <c r="K31">
-        <v>5.38</v>
+        <v>16.1</v>
       </c>
       <c r="L31">
-        <v>0.08762214983713355</v>
+        <v>0.06110056925996205</v>
       </c>
       <c r="M31">
-        <v>1.4756</v>
+        <v>3.376</v>
       </c>
       <c r="N31">
-        <v>0.01954437086092715</v>
+        <v>0.03889400921658986</v>
       </c>
       <c r="O31">
-        <v>0.274275092936803</v>
+        <v>0.2096894409937888</v>
       </c>
       <c r="P31">
-        <v>1.4756</v>
+        <v>3.376</v>
       </c>
       <c r="Q31">
-        <v>0.01954437086092715</v>
+        <v>0.03889400921658986</v>
       </c>
       <c r="R31">
-        <v>0.274275092936803</v>
+        <v>0.2096894409937888</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4189,67 +4189,73 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>369.5</v>
+        <v>50</v>
       </c>
       <c r="V31">
-        <v>4.894039735099338</v>
+        <v>0.5760368663594471</v>
       </c>
       <c r="W31">
-        <v>0.09212328767123287</v>
+        <v>0.2406576980568012</v>
       </c>
       <c r="X31">
-        <v>0.08701657888697011</v>
+        <v>0.05554156978739623</v>
       </c>
       <c r="Y31">
-        <v>0.005106708784262767</v>
+        <v>0.185116128269405</v>
       </c>
       <c r="Z31">
-        <v>1.453839271200986</v>
+        <v>2.462087588649168</v>
       </c>
       <c r="AA31">
-        <v>-0.05200450694992183</v>
+        <v>-0.0461417005156435</v>
       </c>
       <c r="AB31">
-        <v>0.04244287177727164</v>
+        <v>0.03332256940993468</v>
       </c>
       <c r="AC31">
-        <v>-0.09444737872719347</v>
+        <v>-0.07946426992557817</v>
       </c>
       <c r="AD31">
-        <v>125.2</v>
+        <v>97</v>
       </c>
       <c r="AE31">
-        <v>23.03300416783949</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>148.2330041678395</v>
+        <v>97</v>
       </c>
       <c r="AG31">
-        <v>-221.2669958321605</v>
+        <v>47</v>
       </c>
       <c r="AH31">
-        <v>0.662544199588177</v>
+        <v>0.5277475516866158</v>
       </c>
       <c r="AI31">
-        <v>0.7091368406532508</v>
+        <v>0.5099894847528917</v>
       </c>
       <c r="AJ31">
-        <v>1.517949893725823</v>
+        <v>0.351270553064275</v>
       </c>
       <c r="AK31">
-        <v>1.378894112678431</v>
+        <v>0.3352353780313838</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2.469</v>
       </c>
       <c r="AN31">
-        <v>65.89473684210527</v>
+        <v>22.76995305164319</v>
+      </c>
+      <c r="AO31">
+        <v>-2.019455252918288</v>
       </c>
       <c r="AP31">
-        <v>-116.456313595874</v>
+        <v>11.03286384976526</v>
+      </c>
+      <c r="AQ31">
+        <v>-2.102065613608749</v>
       </c>
     </row>
     <row r="32">
@@ -4260,7 +4266,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MPC Münchmeyer Petersen Capital AG (XTRA:MPCK)</t>
+          <t>Murphy&amp;Spitz Green Capital Aktiengesellschaft (DUSE:6MP)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4268,119 +4274,110 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D32">
-        <v>0.06849999999999999</v>
-      </c>
       <c r="G32">
-        <v>-0.1302658486707567</v>
+        <v>-1.494897959183673</v>
       </c>
       <c r="H32">
-        <v>-0.1302658486707567</v>
+        <v>-1.494897959183673</v>
       </c>
       <c r="I32">
-        <v>-0.2862985685071575</v>
+        <v>-1.530612244897959</v>
       </c>
       <c r="J32">
-        <v>-0.2862985685071575</v>
+        <v>-1.530612244897959</v>
       </c>
       <c r="K32">
-        <v>-24.7</v>
+        <v>0.016</v>
       </c>
       <c r="L32">
-        <v>-0.5051124744376279</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="M32">
-        <v>2.99</v>
+        <v>-0</v>
       </c>
       <c r="N32">
-        <v>0.03723536737235368</v>
+        <v>-0</v>
       </c>
       <c r="O32">
-        <v>-0.1210526315789474</v>
+        <v>-0</v>
       </c>
       <c r="P32">
-        <v>2.99</v>
+        <v>-0</v>
       </c>
       <c r="Q32">
-        <v>0.03723536737235368</v>
+        <v>-0</v>
       </c>
       <c r="R32">
-        <v>-0.1210526315789474</v>
+        <v>-0</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
-        <v>16</v>
+        <v>0.001</v>
       </c>
       <c r="V32">
-        <v>0.199252801992528</v>
+        <v>7.194244604316547e-05</v>
       </c>
       <c r="W32">
-        <v>-0.1844660194174757</v>
+        <v>0.004469273743016759</v>
       </c>
       <c r="X32">
-        <v>0.04985618711819811</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y32">
-        <v>-0.2343222065356738</v>
+        <v>-0.03077622242728701</v>
       </c>
       <c r="Z32">
-        <v>0.4884139033160207</v>
+        <v>0.0551957195156294</v>
       </c>
       <c r="AA32">
-        <v>-0.13983220135837</v>
+        <v>-0.08448324415657561</v>
       </c>
       <c r="AB32">
-        <v>0.04739924727303921</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC32">
-        <v>-0.1872314486314092</v>
+        <v>-0.1197287403268794</v>
       </c>
       <c r="AD32">
-        <v>8.41</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>8.41</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>-7.59</v>
+        <v>-0.001</v>
       </c>
       <c r="AH32">
-        <v>0.0948032916243941</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.06147211461150501</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>-0.1043872919818457</v>
+        <v>-7.194762213108857e-05</v>
       </c>
       <c r="AK32">
-        <v>-0.06282592500620809</v>
+        <v>-0.0002841716396703609</v>
       </c>
       <c r="AL32">
-        <v>0.831</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>-1.229</v>
+        <v>-0.315</v>
       </c>
       <c r="AN32">
-        <v>-0.7188034188034189</v>
-      </c>
-      <c r="AO32">
-        <v>-16.84717208182912</v>
+        <v>-0</v>
       </c>
       <c r="AP32">
-        <v>0.6487179487179487</v>
+        <v>0.003412969283276451</v>
       </c>
       <c r="AQ32">
-        <v>11.39137510170871</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="33">
@@ -4391,7 +4388,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAX 21 AG (XTRA:MA1)</t>
+          <t>SGT German Private Equity GmbH &amp; Co. KGaA (XTRA:SGF)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4399,32 +4396,38 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D33">
+        <v>0.102</v>
+      </c>
+      <c r="E33">
+        <v>-0.0433</v>
+      </c>
       <c r="G33">
-        <v>-0.6734234234234234</v>
+        <v>-0.1821515892420538</v>
       </c>
       <c r="H33">
-        <v>-0.6734234234234234</v>
+        <v>-0.1821515892420538</v>
       </c>
       <c r="I33">
-        <v>-0.4431032911524241</v>
+        <v>-0.4180929095354523</v>
       </c>
       <c r="J33">
-        <v>-0.4431032911524241</v>
+        <v>-0.4180929095354523</v>
       </c>
       <c r="K33">
-        <v>-18</v>
+        <v>2.91</v>
       </c>
       <c r="L33">
-        <v>-2.027027027027027</v>
+        <v>0.3557457212713937</v>
       </c>
       <c r="M33">
-        <v>-0</v>
+        <v>1.52</v>
       </c>
       <c r="N33">
-        <v>-0</v>
+        <v>0.0763819095477387</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.5223367697594502</v>
       </c>
       <c r="P33">
         <v>-0</v>
@@ -4433,79 +4436,82 @@
         <v>-0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1.52</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1.23</v>
+        <v>0.353</v>
       </c>
       <c r="V33">
-        <v>0.3044554455445544</v>
+        <v>0.01773869346733668</v>
       </c>
       <c r="W33">
-        <v>-0.625</v>
+        <v>0.08926380368098159</v>
       </c>
       <c r="X33">
-        <v>0.04909241274425938</v>
+        <v>0.03524640882594794</v>
       </c>
       <c r="Y33">
-        <v>-0.6740924127442594</v>
+        <v>0.05401739485503365</v>
       </c>
       <c r="Z33">
-        <v>0.3218699060940401</v>
+        <v>0.2203485709667861</v>
       </c>
       <c r="AA33">
-        <v>-0.1426216147131908</v>
+        <v>-0.09212617514748268</v>
       </c>
       <c r="AB33">
-        <v>0.04768931490329983</v>
+        <v>0.03524531308157199</v>
       </c>
       <c r="AC33">
-        <v>-0.1903109296164907</v>
+        <v>-0.1273714882290547</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AE33">
-        <v>0.2687861271676301</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.2687861271676301</v>
+        <v>0.001</v>
       </c>
       <c r="AG33">
-        <v>-0.9612138728323699</v>
+        <v>-0.352</v>
       </c>
       <c r="AH33">
-        <v>0.06238093960451827</v>
+        <v>5.024873121953671e-05</v>
       </c>
       <c r="AI33">
-        <v>0.02138520971302428</v>
+        <v>2.976101901729115e-05</v>
       </c>
       <c r="AJ33">
-        <v>-0.3122054709648349</v>
+        <v>-0.01800695723347657</v>
       </c>
       <c r="AK33">
-        <v>-0.08477220242555859</v>
+        <v>-0.01058710298363811</v>
       </c>
       <c r="AL33">
-        <v>0.023</v>
+        <v>0.446</v>
       </c>
       <c r="AM33">
-        <v>-0.6749999999999999</v>
+        <v>0.394</v>
       </c>
       <c r="AN33">
-        <v>-0</v>
+        <v>0.0009090909090909091</v>
       </c>
       <c r="AO33">
-        <v>-180.8695652173913</v>
+        <v>-7.668161434977578</v>
       </c>
       <c r="AP33">
-        <v>0.2777272097175296</v>
+        <v>-0.32</v>
       </c>
       <c r="AQ33">
-        <v>6.162962962962964</v>
+        <v>-8.680203045685278</v>
       </c>
     </row>
     <row r="34">
@@ -4516,7 +4522,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AURELIUS Equity Opportunities SE &amp; Co. KGaA (XTRA:AR4)</t>
+          <t>Value Management &amp; Research AG (DB:VMR1)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4525,118 +4531,115 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.202</v>
+        <v>0.439</v>
       </c>
       <c r="G34">
-        <v>-0.005238258652809099</v>
+        <v>0.02194244604316547</v>
       </c>
       <c r="H34">
-        <v>-0.006373173840572606</v>
+        <v>0.02194244604316547</v>
       </c>
       <c r="I34">
-        <v>-0.04642132180296777</v>
+        <v>0.02985611510791367</v>
       </c>
       <c r="J34">
-        <v>-0.04642132180296777</v>
+        <v>0.02985611510791367</v>
       </c>
       <c r="K34">
-        <v>-91.5</v>
+        <v>-0.338</v>
       </c>
       <c r="L34">
-        <v>-0.02242866947739975</v>
+        <v>-0.02431654676258993</v>
       </c>
       <c r="M34">
-        <v>55.485</v>
+        <v>-0</v>
       </c>
       <c r="N34">
-        <v>0.0430349802218258</v>
+        <v>-0</v>
       </c>
       <c r="O34">
-        <v>-0.6063934426229508</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>50.445</v>
+        <v>-0</v>
       </c>
       <c r="Q34">
-        <v>0.03912588226169239</v>
+        <v>-0</v>
       </c>
       <c r="R34">
-        <v>-0.551311475409836</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>5.039999999999999</v>
-      </c>
-      <c r="T34">
-        <v>0.09083536090835359</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>204.3</v>
+        <v>0.26</v>
       </c>
       <c r="V34">
-        <v>0.1584580780268363</v>
+        <v>0.02452830188679245</v>
       </c>
       <c r="W34">
-        <v>-0.1476759199483538</v>
+        <v>-0.08871391076115485</v>
       </c>
       <c r="X34">
-        <v>0.06148930550812359</v>
+        <v>0.0499463122079306</v>
       </c>
       <c r="Y34">
-        <v>-0.2091652254564774</v>
+        <v>-0.1386602229690855</v>
       </c>
       <c r="Z34">
-        <v>3.753419849782959</v>
+        <v>-6.754130223517979</v>
       </c>
       <c r="AA34">
-        <v>-0.1742387107084217</v>
+        <v>-0.2016520894071915</v>
       </c>
       <c r="AB34">
-        <v>0.04620363409755966</v>
+        <v>0.03568225805026404</v>
       </c>
       <c r="AC34">
-        <v>-0.2204423448059813</v>
+        <v>-0.2373343474574555</v>
       </c>
       <c r="AD34">
-        <v>259.3</v>
+        <v>8.58</v>
       </c>
       <c r="AE34">
-        <v>625.9021221369366</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>885.2021221369366</v>
+        <v>8.58</v>
       </c>
       <c r="AG34">
-        <v>680.9021221369367</v>
+        <v>8.32</v>
       </c>
       <c r="AH34">
-        <v>0.4070826664758675</v>
+        <v>0.4473409801876955</v>
       </c>
       <c r="AI34">
-        <v>0.6179412291665128</v>
+        <v>0.5302843016069222</v>
       </c>
       <c r="AJ34">
-        <v>0.3456001363953517</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="AK34">
-        <v>0.554389306014422</v>
+        <v>0.5226130653266332</v>
       </c>
       <c r="AL34">
-        <v>37.5</v>
+        <v>0.416</v>
       </c>
       <c r="AM34">
-        <v>33.17</v>
+        <v>0.411</v>
       </c>
       <c r="AN34">
-        <v>3.361856605730585</v>
+        <v>11.51677852348993</v>
       </c>
       <c r="AO34">
-        <v>-3.928</v>
+        <v>0.9975961538461539</v>
       </c>
       <c r="AP34">
-        <v>8.827980320717447</v>
+        <v>11.16778523489933</v>
       </c>
       <c r="AQ34">
-        <v>-4.440759722640941</v>
+        <v>1.009732360097324</v>
       </c>
     </row>
     <row r="35">
@@ -4647,7 +4650,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lloyd Fonds AG (XTRA:L1OA)</t>
+          <t>Camerit AG (DB:RTML)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4656,28 +4659,25 @@
         </is>
       </c>
       <c r="D35">
-        <v>-0.0442</v>
-      </c>
-      <c r="E35">
-        <v>0.0012</v>
+        <v>-0.234</v>
       </c>
       <c r="G35">
-        <v>-0.2627811860940695</v>
+        <v>-1.21044776119403</v>
       </c>
       <c r="H35">
-        <v>-0.2627811860940695</v>
+        <v>-1.21044776119403</v>
       </c>
       <c r="I35">
-        <v>-0.6683389605937626</v>
+        <v>-1.65414826887593</v>
       </c>
       <c r="J35">
-        <v>-0.466854421002996</v>
+        <v>-1.602992202042174</v>
       </c>
       <c r="K35">
-        <v>0.19</v>
+        <v>10.5</v>
       </c>
       <c r="L35">
-        <v>0.01942740286298569</v>
+        <v>15.67164179104478</v>
       </c>
       <c r="M35">
         <v>-0</v>
@@ -4701,73 +4701,73 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>13</v>
+        <v>0.369</v>
       </c>
       <c r="V35">
-        <v>0.1911764705882353</v>
+        <v>0.075</v>
       </c>
       <c r="W35">
-        <v>0.007569721115537848</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="X35">
-        <v>0.05350500506049638</v>
+        <v>0.03558288091099834</v>
       </c>
       <c r="Y35">
-        <v>-0.04593528394495854</v>
+        <v>3.195186349858233</v>
       </c>
       <c r="Z35">
-        <v>0.5229450097390336</v>
+        <v>0.2224881231478445</v>
       </c>
       <c r="AA35">
-        <v>-0.2441391897381226</v>
+        <v>-0.3566467264529936</v>
       </c>
       <c r="AB35">
-        <v>0.04690789183287446</v>
+        <v>0.03526330263806063</v>
       </c>
       <c r="AC35">
-        <v>-0.2910470815709971</v>
+        <v>-0.3919100290910542</v>
       </c>
       <c r="AD35">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>8.831775173034988</v>
+        <v>0.09139670073436569</v>
       </c>
       <c r="AF35">
-        <v>19.53177517303499</v>
+        <v>0.09139670073436569</v>
       </c>
       <c r="AG35">
-        <v>6.531775173034987</v>
+        <v>-0.2776032992656343</v>
       </c>
       <c r="AH35">
-        <v>0.2231392558236605</v>
+        <v>0.01823777006537369</v>
       </c>
       <c r="AI35">
-        <v>0.4346984978407138</v>
+        <v>0.01046759228413922</v>
       </c>
       <c r="AJ35">
-        <v>0.08763745607656118</v>
+        <v>-0.05979741007952232</v>
       </c>
       <c r="AK35">
-        <v>0.2045540887608025</v>
+        <v>-0.03319661924687881</v>
       </c>
       <c r="AL35">
-        <v>0.451</v>
+        <v>0.016</v>
       </c>
       <c r="AM35">
-        <v>-0.004000000000000004</v>
+        <v>0.015</v>
       </c>
       <c r="AN35">
-        <v>-2.336244541484716</v>
+        <v>-0</v>
       </c>
       <c r="AO35">
-        <v>-15.29933481152993</v>
+        <v>-73.75</v>
       </c>
       <c r="AP35">
-        <v>-1.426151784505456</v>
+        <v>0.2546819259317746</v>
       </c>
       <c r="AQ35">
-        <v>1724.999999999999</v>
+        <v>-78.66666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mutares SE &amp; Co. KGaA (XTRA:MUX)</t>
+          <t>Mic AG (XTRA:M3BK)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4787,118 +4787,115 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.105</v>
+        <v>-0.322</v>
       </c>
       <c r="G36">
-        <v>-0.03819357530246141</v>
+        <v>-1.59541188738269</v>
       </c>
       <c r="H36">
-        <v>-0.04057154776804339</v>
+        <v>-1.59541188738269</v>
       </c>
       <c r="I36">
-        <v>-0.04759707769996843</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="J36">
-        <v>-0.04516574611030282</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="K36">
-        <v>60.2</v>
+        <v>-1.85</v>
       </c>
       <c r="L36">
-        <v>0.06278681685440134</v>
+        <v>-1.929092805005214</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>-0</v>
       </c>
       <c r="N36">
-        <v>0.08739650413983441</v>
+        <v>-0</v>
       </c>
       <c r="O36">
-        <v>0.3156146179401993</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>19</v>
+        <v>-0</v>
       </c>
       <c r="Q36">
-        <v>0.08739650413983441</v>
+        <v>-0</v>
       </c>
       <c r="R36">
-        <v>0.3156146179401993</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
       <c r="U36">
-        <v>92.09999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="V36">
-        <v>0.4236430542778288</v>
+        <v>0.04306818181818182</v>
       </c>
       <c r="W36">
-        <v>0.2880382775119618</v>
+        <v>-0.5692307692307692</v>
       </c>
       <c r="X36">
-        <v>0.0623923097059481</v>
+        <v>0.03539409310291551</v>
       </c>
       <c r="Y36">
-        <v>0.2256459678060136</v>
+        <v>-0.6046248623336847</v>
       </c>
       <c r="Z36">
-        <v>6.800945838231277</v>
+        <v>0.2860978520286396</v>
       </c>
       <c r="AA36">
-        <v>-0.3071697930394744</v>
+        <v>-0.408711217183771</v>
       </c>
       <c r="AB36">
-        <v>0.04614442907826336</v>
+        <v>0.03525341966925794</v>
       </c>
       <c r="AC36">
-        <v>-0.3533142221177378</v>
+        <v>-0.4439646368530289</v>
       </c>
       <c r="AD36">
-        <v>100.9</v>
+        <v>0.144</v>
       </c>
       <c r="AE36">
-        <v>58.18039049364863</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>159.0803904936486</v>
+        <v>0.144</v>
       </c>
       <c r="AG36">
-        <v>66.98039049364863</v>
+        <v>-0.614</v>
       </c>
       <c r="AH36">
-        <v>0.4225462853060135</v>
+        <v>0.008115419296663661</v>
       </c>
       <c r="AI36">
-        <v>0.3787805195063135</v>
+        <v>0.05551272166538164</v>
       </c>
       <c r="AJ36">
-        <v>0.2355309744718301</v>
+        <v>-0.03614741551866243</v>
       </c>
       <c r="AK36">
-        <v>0.2042830020813523</v>
+        <v>-0.3344226579520697</v>
       </c>
       <c r="AL36">
-        <v>8.42</v>
+        <v>0.01</v>
       </c>
       <c r="AM36">
-        <v>8.305999999999999</v>
+        <v>-0.866</v>
       </c>
       <c r="AN36">
-        <v>-23.46511627906976</v>
+        <v>-0.1058823529411765</v>
       </c>
       <c r="AO36">
-        <v>-5.724465558194774</v>
+        <v>-137</v>
       </c>
       <c r="AP36">
-        <v>-15.57683499852293</v>
+        <v>0.4514705882352941</v>
       </c>
       <c r="AQ36">
-        <v>-5.803033951360463</v>
+        <v>1.581986143187067</v>
       </c>
     </row>
     <row r="37">
@@ -4909,7 +4906,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Value Management &amp; Research AG (DB:VMR1)</t>
+          <t>AURELIUS Equity Opportunities SE &amp; Co. KGaA (XTRA:AR4)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4918,115 +4915,121 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.143</v>
+        <v>0.14</v>
+      </c>
+      <c r="E37">
+        <v>0.099</v>
       </c>
       <c r="G37">
-        <v>0.0695798319327731</v>
+        <v>-0.05255649987702567</v>
       </c>
       <c r="H37">
-        <v>0.0695798319327731</v>
+        <v>-0.05378077774437734</v>
       </c>
       <c r="I37">
-        <v>-0.07033770921509896</v>
+        <v>-0.07870357718689366</v>
       </c>
       <c r="J37">
-        <v>-0.07033770921509896</v>
+        <v>-0.07870357718689366</v>
       </c>
       <c r="K37">
-        <v>-0.993</v>
+        <v>193.5</v>
       </c>
       <c r="L37">
-        <v>-0.166890756302521</v>
+        <v>0.05287896592244418</v>
       </c>
       <c r="M37">
-        <v>-0</v>
+        <v>120.3</v>
       </c>
       <c r="N37">
-        <v>-0</v>
+        <v>0.1970515970515971</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.6217054263565892</v>
       </c>
       <c r="P37">
-        <v>-0</v>
+        <v>100.2</v>
       </c>
       <c r="Q37">
-        <v>-0</v>
+        <v>0.1641277641277641</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.5178294573643411</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>20.10000000000001</v>
+      </c>
+      <c r="T37">
+        <v>0.1670822942643392</v>
       </c>
       <c r="U37">
-        <v>0.368</v>
+        <v>443.9</v>
       </c>
       <c r="V37">
-        <v>0.04008714596949891</v>
+        <v>0.7271089271089271</v>
       </c>
       <c r="W37">
-        <v>-0.2829059829059829</v>
+        <v>0.3643381660704199</v>
       </c>
       <c r="X37">
-        <v>0.06978680695018354</v>
+        <v>0.06350122521827781</v>
       </c>
       <c r="Y37">
-        <v>-0.3526927898561664</v>
+        <v>0.3008369408521421</v>
       </c>
       <c r="Z37">
-        <v>5.267599130112837</v>
+        <v>6.800408845939415</v>
       </c>
       <c r="AA37">
-        <v>-0.370510855875585</v>
+        <v>-0.5352165025088272</v>
       </c>
       <c r="AB37">
-        <v>0.04714963975998683</v>
+        <v>0.03583982951724579</v>
       </c>
       <c r="AC37">
-        <v>-0.4176604956355718</v>
+        <v>-0.5710563320260731</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>949.8</v>
       </c>
       <c r="AE37">
-        <v>0.1125468491491947</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>10.1125468491492</v>
+        <v>949.8</v>
       </c>
       <c r="AG37">
-        <v>9.744546849149195</v>
+        <v>505.9</v>
       </c>
       <c r="AH37">
-        <v>0.5241685780638734</v>
+        <v>0.6087290905595077</v>
       </c>
       <c r="AI37">
-        <v>0.5531257178000776</v>
+        <v>0.6271790808240887</v>
       </c>
       <c r="AJ37">
-        <v>0.5149157296512644</v>
+        <v>0.453152991759226</v>
       </c>
       <c r="AK37">
-        <v>0.5439460417951898</v>
+        <v>0.4725829051844932</v>
       </c>
       <c r="AL37">
-        <v>0.314</v>
+        <v>46.6</v>
       </c>
       <c r="AM37">
-        <v>0.307</v>
+        <v>43.51000000000001</v>
       </c>
       <c r="AN37">
-        <v>80.64516129032258</v>
+        <v>-4.079896907216495</v>
       </c>
       <c r="AO37">
-        <v>-1.528662420382165</v>
+        <v>-6.180257510729613</v>
       </c>
       <c r="AP37">
-        <v>78.58505523507415</v>
+        <v>-2.173109965635739</v>
       </c>
       <c r="AQ37">
-        <v>-1.563517915309446</v>
+        <v>-6.61916800735463</v>
       </c>
     </row>
     <row r="38">
@@ -5037,7 +5040,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Panamax AG (XTRA:ICP)</t>
+          <t>Mutares SE &amp; Co. KGaA (XTRA:MUX)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5045,92 +5048,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D38">
+        <v>0.128</v>
+      </c>
+      <c r="G38">
+        <v>-0.04225320774308389</v>
+      </c>
+      <c r="H38">
+        <v>-0.04375880738708003</v>
+      </c>
+      <c r="I38">
+        <v>-0.1023511088036787</v>
+      </c>
+      <c r="J38">
+        <v>-0.1023511088036787</v>
+      </c>
       <c r="K38">
-        <v>-0.218</v>
+        <v>-41.8</v>
+      </c>
+      <c r="L38">
+        <v>-0.03100200252169398</v>
       </c>
       <c r="M38">
-        <v>-0</v>
+        <v>17.1</v>
       </c>
       <c r="N38">
-        <v>-0</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>-0.4090909090909092</v>
       </c>
       <c r="P38">
-        <v>-0</v>
+        <v>17.1</v>
       </c>
       <c r="Q38">
-        <v>-0</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>-0.4090909090909092</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
       <c r="U38">
-        <v>0.6</v>
+        <v>123</v>
       </c>
       <c r="V38">
-        <v>0.5607476635514018</v>
+        <v>0.4203691045796308</v>
+      </c>
+      <c r="W38">
+        <v>-0.181109185441941</v>
       </c>
       <c r="X38">
-        <v>0.05671548301426202</v>
+        <v>0.0557908531855443</v>
+      </c>
+      <c r="Y38">
+        <v>-0.2369000386274853</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>5.627295492487478</v>
       </c>
       <c r="AA38">
-        <v>-2.372848475526154</v>
+        <v>-0.5759599332220366</v>
       </c>
       <c r="AB38">
-        <v>0.04740074858726991</v>
+        <v>0.03576373258834231</v>
       </c>
       <c r="AC38">
-        <v>-2.420249224113424</v>
+        <v>-0.611723665810379</v>
       </c>
       <c r="AD38">
-        <v>0.412</v>
+        <v>331</v>
       </c>
       <c r="AE38">
-        <v>0.06715418981513188</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>0.4791541898151319</v>
+        <v>331</v>
       </c>
       <c r="AG38">
-        <v>-0.1208458101848681</v>
+        <v>208</v>
       </c>
       <c r="AH38">
-        <v>0.3093005157041931</v>
+        <v>0.5307889672867222</v>
       </c>
       <c r="AI38">
-        <v>0.9599322205280751</v>
+        <v>0.6468633965213992</v>
       </c>
       <c r="AJ38">
-        <v>-0.1273194718851796</v>
+        <v>0.4155013983220135</v>
       </c>
       <c r="AK38">
-        <v>1.198322567524982</v>
+        <v>0.5351170568561873</v>
       </c>
       <c r="AL38">
-        <v>0.013</v>
+        <v>18.2</v>
       </c>
       <c r="AM38">
-        <v>0.013</v>
+        <v>16.06</v>
       </c>
       <c r="AN38">
-        <v>-2.168421052631579</v>
+        <v>-3.813364055299539</v>
       </c>
       <c r="AO38">
-        <v>-15.84615384615385</v>
+        <v>-7.582417582417583</v>
       </c>
       <c r="AP38">
-        <v>0.6360305799203585</v>
+        <v>-2.3963133640553</v>
       </c>
       <c r="AQ38">
-        <v>-15.84615384615385</v>
+        <v>-8.592777085927771</v>
       </c>
     </row>
     <row r="39">
@@ -5141,7 +5171,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ERWE Immobilien AG (XTRA:ERWE)</t>
+          <t>Lloyd Fonds AG (XTRA:L1OA)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5150,28 +5180,25 @@
         </is>
       </c>
       <c r="D39">
-        <v>1.322</v>
-      </c>
-      <c r="E39">
-        <v>0.357</v>
+        <v>-0.006730000000000001</v>
       </c>
       <c r="G39">
-        <v>-0.316888045540797</v>
+        <v>-1.075</v>
       </c>
       <c r="H39">
-        <v>-0.316888045540797</v>
+        <v>-1.075</v>
       </c>
       <c r="I39">
-        <v>-0.6225207982372906</v>
+        <v>-1.133333333333333</v>
       </c>
       <c r="J39">
-        <v>-0.3839025007517096</v>
+        <v>-1.133333333333333</v>
       </c>
       <c r="K39">
-        <v>4.28</v>
+        <v>-5.56</v>
       </c>
       <c r="L39">
-        <v>0.8121442125237193</v>
+        <v>-0.4633333333333333</v>
       </c>
       <c r="M39">
         <v>-0</v>
@@ -5180,7 +5207,7 @@
         <v>-0</v>
       </c>
       <c r="O39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>-0</v>
@@ -5189,79 +5216,79 @@
         <v>-0</v>
       </c>
       <c r="R39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>15.4</v>
+        <v>5.64</v>
       </c>
       <c r="V39">
-        <v>0.2479871175523349</v>
+        <v>0.05606361829025845</v>
       </c>
       <c r="W39">
-        <v>5.661375661375661</v>
+        <v>-0.2188976377952756</v>
       </c>
       <c r="X39">
-        <v>0.07163001859933171</v>
+        <v>0.03824238151323547</v>
       </c>
       <c r="Y39">
-        <v>5.58974564277633</v>
+        <v>-0.257140019308511</v>
       </c>
       <c r="Z39">
-        <v>29.37192564217178</v>
+        <v>0.5194805194805197</v>
       </c>
       <c r="AA39">
-        <v>-11.27595570592301</v>
+        <v>-0.5887445887445889</v>
       </c>
       <c r="AB39">
-        <v>0.04567879279454871</v>
+        <v>0.03472941621357926</v>
       </c>
       <c r="AC39">
-        <v>-11.32163449871756</v>
+        <v>-0.6234740049581682</v>
       </c>
       <c r="AD39">
-        <v>73.7</v>
+        <v>16.6</v>
       </c>
       <c r="AE39">
-        <v>0.4334230335526048</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>74.1334230335526</v>
+        <v>16.6</v>
       </c>
       <c r="AG39">
-        <v>58.7334230335526</v>
+        <v>10.96</v>
       </c>
       <c r="AH39">
-        <v>0.5441647239186999</v>
+        <v>0.1416382252559727</v>
       </c>
       <c r="AI39">
-        <v>0.5696724277700633</v>
+        <v>0.282312925170068</v>
       </c>
       <c r="AJ39">
-        <v>0.4860693470319359</v>
+        <v>0.09824309788454644</v>
       </c>
       <c r="AK39">
-        <v>0.511912060850626</v>
+        <v>0.2061700526711814</v>
       </c>
       <c r="AL39">
-        <v>4.76</v>
+        <v>2.5</v>
       </c>
       <c r="AM39">
-        <v>4.721</v>
+        <v>2.5</v>
       </c>
       <c r="AN39">
-        <v>-23.29329962073325</v>
+        <v>-1.418803418803419</v>
       </c>
       <c r="AO39">
-        <v>-0.6932773109243697</v>
+        <v>-5.44</v>
       </c>
       <c r="AP39">
-        <v>-18.56302877166643</v>
+        <v>-0.9367521367521369</v>
       </c>
       <c r="AQ39">
-        <v>-0.699004448210125</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="40">
@@ -5272,7 +5299,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hesse Newman Capital AG (DB:RTML)</t>
+          <t>MLP SE (XTRA:MLP)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5281,115 +5308,121 @@
         </is>
       </c>
       <c r="D40">
-        <v>-0.24</v>
+        <v>0.0578</v>
+      </c>
+      <c r="E40">
+        <v>0.099</v>
       </c>
       <c r="G40">
-        <v>-0.269672131147541</v>
+        <v>0.06823447636700648</v>
       </c>
       <c r="H40">
-        <v>-0.269672131147541</v>
+        <v>0.06823447636700648</v>
       </c>
       <c r="I40">
-        <v>-2.987361277973154</v>
+        <v>0.07147822057460612</v>
       </c>
       <c r="J40">
-        <v>-2.987361277973154</v>
+        <v>0.05552853499184277</v>
       </c>
       <c r="K40">
-        <v>-3.66</v>
+        <v>47.8</v>
       </c>
       <c r="L40">
-        <v>-3</v>
+        <v>0.05537534754402224</v>
       </c>
       <c r="M40">
-        <v>-0</v>
+        <v>25.7</v>
       </c>
       <c r="N40">
-        <v>-0</v>
+        <v>0.03569940269481872</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.5376569037656904</v>
       </c>
       <c r="P40">
-        <v>-0</v>
+        <v>25.7</v>
       </c>
       <c r="Q40">
-        <v>-0</v>
+        <v>0.03569940269481872</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>0.5376569037656904</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
       <c r="U40">
-        <v>0.671</v>
+        <v>749.5</v>
       </c>
       <c r="V40">
-        <v>0.1244897959183674</v>
+        <v>1.041116821780803</v>
       </c>
       <c r="W40">
-        <v>-19.16230366492147</v>
+        <v>0.1073433640242533</v>
       </c>
       <c r="X40">
-        <v>0.0492604495436397</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y40">
-        <v>-19.21156411446511</v>
+        <v>0.07209786785394953</v>
       </c>
       <c r="Z40">
-        <v>23.96677860170235</v>
+        <v>-22.53785900783289</v>
       </c>
       <c r="AA40">
-        <v>-71.59742635248118</v>
+        <v>-1.251494292557668</v>
       </c>
       <c r="AB40">
-        <v>0.0476807475146911</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC40">
-        <v>-71.64510709999587</v>
+        <v>-1.286739788727971</v>
       </c>
       <c r="AD40">
-        <v>0.341</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>0.06290379563623724</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>0.4039037956362372</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>-0.2670962043637628</v>
+        <v>-749.5</v>
       </c>
       <c r="AH40">
-        <v>0.0697118574768955</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.1105403475916933</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>-0.05213765766815281</v>
+        <v>25.32094594594593</v>
       </c>
       <c r="AK40">
-        <v>-0.08954234620456226</v>
+        <v>3.061683006535948</v>
       </c>
       <c r="AL40">
-        <v>0.024</v>
+        <v>5.72</v>
       </c>
       <c r="AM40">
-        <v>0.023</v>
+        <v>3.8</v>
       </c>
       <c r="AN40">
-        <v>-0.09362987369577155</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>-153.75</v>
+        <v>10.78671328671329</v>
       </c>
       <c r="AP40">
-        <v>0.0733377826369475</v>
+        <v>-10.42420027816412</v>
       </c>
       <c r="AQ40">
-        <v>-160.4347826086957</v>
+        <v>16.23684210526316</v>
       </c>
     </row>
     <row r="41">
@@ -5400,7 +5433,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Trade &amp; Value AG (HMSE:TAV)</t>
+          <t>Elbstein AG (HMSE:EBS)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5409,47 +5442,50 @@
         </is>
       </c>
       <c r="D41">
-        <v>-0.0702</v>
+        <v>0.233</v>
       </c>
       <c r="G41">
-        <v>-0.02937853107344632</v>
+        <v>-0.4606986899563318</v>
       </c>
       <c r="H41">
-        <v>-0.02937853107344632</v>
+        <v>-0.4606986899563318</v>
       </c>
       <c r="I41">
-        <v>-0.03050847457627118</v>
+        <v>-0.4606986899563318</v>
       </c>
       <c r="J41">
-        <v>-0.03050847457627118</v>
+        <v>-0.4601585977055038</v>
       </c>
       <c r="K41">
-        <v>-0.426</v>
+        <v>0.851</v>
       </c>
       <c r="L41">
-        <v>-0.2406779661016949</v>
+        <v>1.858078602620087</v>
       </c>
       <c r="M41">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="N41">
-        <v>-0</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1.057579318448884</v>
       </c>
       <c r="P41">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Q41">
-        <v>-0</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1.057579318448884</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
       <c r="U41">
         <v>0</v>
       </c>
@@ -5457,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB41">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -5481,22 +5517,22 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>0.002</v>
+        <v>0.034</v>
       </c>
       <c r="AM41">
-        <v>-0.004</v>
+        <v>-1.076</v>
       </c>
       <c r="AN41">
         <v>-0</v>
       </c>
       <c r="AO41">
-        <v>-27</v>
+        <v>-6.205882352941176</v>
       </c>
       <c r="AP41">
         <v>-0</v>
       </c>
       <c r="AQ41">
-        <v>13.5</v>
+        <v>0.1960966542750929</v>
       </c>
     </row>
     <row r="42">
@@ -5507,7 +5543,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cash.life AG (DUSE:SGS)</t>
+          <t>Trade &amp; Value AG (HMSE:TAV)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5516,25 +5552,25 @@
         </is>
       </c>
       <c r="D42">
-        <v>-0.276</v>
+        <v>-0.0587</v>
       </c>
       <c r="G42">
-        <v>-0.6487603305785125</v>
+        <v>-0.01578947368421053</v>
       </c>
       <c r="H42">
-        <v>-0.6487603305785125</v>
+        <v>-0.01578947368421053</v>
       </c>
       <c r="I42">
-        <v>-0.6578512396694215</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="J42">
-        <v>-0.6578512396694215</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="K42">
-        <v>-8.24</v>
+        <v>-0.403</v>
       </c>
       <c r="L42">
-        <v>-6.809917355371901</v>
+        <v>-0.3030075187969925</v>
       </c>
       <c r="M42">
         <v>-0</v>
@@ -5564,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB42">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -5588,22 +5624,22 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>8.08</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AM42">
-        <v>7.789</v>
+        <v>0.0009999999999999992</v>
       </c>
       <c r="AN42">
         <v>-0</v>
       </c>
       <c r="AO42">
-        <v>-0.09851485148514852</v>
+        <v>-2.888888888888889</v>
       </c>
       <c r="AP42">
         <v>-0</v>
       </c>
       <c r="AQ42">
-        <v>-0.1021954037745539</v>
+        <v>-26.00000000000002</v>
       </c>
     </row>
     <row r="43">
@@ -5614,7 +5650,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>U.C.A. Aktiengesellschaft (DB:UCA1)</t>
+          <t>NABAG Anlage- Und Beteiligungs AG (HMSE:NAB)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5622,8 +5658,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>-17</v>
+      </c>
+      <c r="J43">
+        <v>-17</v>
+      </c>
       <c r="K43">
-        <v>-1.96</v>
+        <v>0.055</v>
+      </c>
+      <c r="L43">
+        <v>27.5</v>
       </c>
       <c r="M43">
         <v>-0</v>
@@ -5632,7 +5683,7 @@
         <v>-0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P43">
         <v>-0</v>
@@ -5641,7 +5692,7 @@
         <v>-0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5653,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB43">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -5680,432 +5731,10 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>-0.589</v>
-      </c>
-      <c r="AN43">
-        <v>-0</v>
-      </c>
-      <c r="AP43">
-        <v>-0</v>
+        <v>-0.016</v>
       </c>
       <c r="AQ43">
-        <v>1.086587436332767</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Murphy&amp;Spitz Green Capital Aktiengesellschaft (DUSE:6MP)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>-0.5751295336787565</v>
-      </c>
-      <c r="H44">
-        <v>-0.5751295336787565</v>
-      </c>
-      <c r="I44">
-        <v>-0.9222797927461139</v>
-      </c>
-      <c r="J44">
-        <v>-0.9222797927461139</v>
-      </c>
-      <c r="K44">
-        <v>1.37</v>
-      </c>
-      <c r="L44">
-        <v>7.098445595854923</v>
-      </c>
-      <c r="M44">
-        <v>-0</v>
-      </c>
-      <c r="N44">
-        <v>-0</v>
-      </c>
-      <c r="O44">
-        <v>-0</v>
-      </c>
-      <c r="P44">
-        <v>-0</v>
-      </c>
-      <c r="Q44">
-        <v>-0</v>
-      </c>
-      <c r="R44">
-        <v>-0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>1.23</v>
-      </c>
-      <c r="V44">
-        <v>0.1977491961414791</v>
-      </c>
-      <c r="X44">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AB44">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>-1.23</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>-0.2464929859719439</v>
-      </c>
-      <c r="AK44">
-        <v>-0.5491071428571428</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>-1.71</v>
-      </c>
-      <c r="AN44">
-        <v>-0</v>
-      </c>
-      <c r="AP44">
-        <v>7.365269461077844</v>
-      </c>
-      <c r="AQ44">
-        <v>0.104093567251462</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>NABAG Anlage- Und Beteiligungs AG (HMSE:NAB)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>-16.5</v>
-      </c>
-      <c r="J45">
-        <v>-16.5</v>
-      </c>
-      <c r="K45">
-        <v>-0.179</v>
-      </c>
-      <c r="L45">
-        <v>-89.5</v>
-      </c>
-      <c r="M45">
-        <v>-0</v>
-      </c>
-      <c r="N45">
-        <v>-0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>-0</v>
-      </c>
-      <c r="Q45">
-        <v>-0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AB45">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>-0.013</v>
-      </c>
-      <c r="AQ45">
-        <v>2.538461538461539</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Lena Beteiligungs AG (HMSE:L1AK)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>-0.51</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>-4</v>
-      </c>
-      <c r="J46">
-        <v>-4</v>
-      </c>
-      <c r="K46">
-        <v>-0.017</v>
-      </c>
-      <c r="L46">
-        <v>-4.25</v>
-      </c>
-      <c r="M46">
-        <v>-0</v>
-      </c>
-      <c r="N46">
-        <v>-0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>-0</v>
-      </c>
-      <c r="Q46">
-        <v>-0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AB46">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0.001</v>
-      </c>
-      <c r="AM46">
-        <v>0.001</v>
-      </c>
-      <c r="AO46">
-        <v>-16</v>
-      </c>
-      <c r="AQ46">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Netfonds AG (DB:NF4)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G47">
-        <v>0.01166044776119403</v>
-      </c>
-      <c r="H47">
-        <v>0.01166044776119403</v>
-      </c>
-      <c r="I47">
-        <v>-0.001110074626865672</v>
-      </c>
-      <c r="J47">
-        <v>-0.001110074626865672</v>
-      </c>
-      <c r="K47">
-        <v>-0.79</v>
-      </c>
-      <c r="L47">
-        <v>-0.007369402985074627</v>
-      </c>
-      <c r="M47">
-        <v>0.331</v>
-      </c>
-      <c r="N47">
-        <v>0.005817223198594025</v>
-      </c>
-      <c r="O47">
-        <v>-0.4189873417721519</v>
-      </c>
-      <c r="P47">
-        <v>0.331</v>
-      </c>
-      <c r="Q47">
-        <v>0.005817223198594025</v>
-      </c>
-      <c r="R47">
-        <v>-0.4189873417721519</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>4.46</v>
-      </c>
-      <c r="V47">
-        <v>0.07838312829525483</v>
-      </c>
-      <c r="X47">
-        <v>0.05507093235281016</v>
-      </c>
-      <c r="AB47">
-        <v>0.04673729795205788</v>
-      </c>
-      <c r="AD47">
-        <v>20.8</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>20.8</v>
-      </c>
-      <c r="AG47">
-        <v>16.34</v>
-      </c>
-      <c r="AH47">
-        <v>0.2676962676962677</v>
-      </c>
-      <c r="AI47">
-        <v>0.6246246246246246</v>
-      </c>
-      <c r="AJ47">
-        <v>0.2231021299836155</v>
-      </c>
-      <c r="AK47">
-        <v>0.5665742024965326</v>
-      </c>
-      <c r="AL47">
-        <v>0.218</v>
-      </c>
-      <c r="AM47">
-        <v>0.187</v>
-      </c>
-      <c r="AN47">
-        <v>16.64</v>
-      </c>
-      <c r="AO47">
-        <v>-0.5458715596330275</v>
-      </c>
-      <c r="AP47">
-        <v>13.072</v>
-      </c>
-      <c r="AQ47">
-        <v>-0.6363636363636364</v>
+        <v>2.125</v>
       </c>
     </row>
   </sheetData>
